--- a/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,994 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.59304167760801</v>
+        <v>21.05204176671155</v>
       </c>
       <c r="C2">
-        <v>15.31426431094651</v>
+        <v>14.43493759990684</v>
       </c>
       <c r="D2">
-        <v>9.641468400650719</v>
+        <v>5.007908716678772</v>
       </c>
       <c r="E2">
-        <v>30.27335729185769</v>
+        <v>5.365591054139294</v>
       </c>
       <c r="F2">
-        <v>63.3662356245482</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>4.080468853276381</v>
+        <v>64.94302212652218</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.580173714488875</v>
       </c>
       <c r="K2">
-        <v>19.21607786395406</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>13.58184663465603</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.94182763512283</v>
+        <v>19.49544587619361</v>
       </c>
       <c r="C3">
-        <v>14.15224137660338</v>
+        <v>13.33644647116435</v>
       </c>
       <c r="D3">
-        <v>9.134418679190679</v>
+        <v>4.691868461263534</v>
       </c>
       <c r="E3">
-        <v>27.90201080046395</v>
+        <v>5.433596029145997</v>
       </c>
       <c r="F3">
-        <v>59.23323129759077</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>4.080468853276381</v>
+        <v>61.55422909592212</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.530747194921618</v>
       </c>
       <c r="K3">
-        <v>17.77781471413952</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>13.01197877834782</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.88914723600652</v>
+        <v>18.55152594096379</v>
       </c>
       <c r="C4">
-        <v>13.4143620898931</v>
+        <v>12.63601570255244</v>
       </c>
       <c r="D4">
-        <v>8.819432297675366</v>
+        <v>4.49199579637055</v>
       </c>
       <c r="E4">
-        <v>26.40010116938514</v>
+        <v>5.477438508016943</v>
       </c>
       <c r="F4">
-        <v>56.63163783030393</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>4.080468853276381</v>
+        <v>59.44055900686597</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.502977862847178</v>
       </c>
       <c r="K4">
-        <v>16.86148923376337</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>12.66861053197247</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.44988153553491</v>
+        <v>18.19231400525165</v>
       </c>
       <c r="C5">
-        <v>13.10708760521564</v>
+        <v>12.34385634667229</v>
       </c>
       <c r="D5">
-        <v>8.690079485894019</v>
+        <v>4.409048878731257</v>
       </c>
       <c r="E5">
-        <v>25.77547994796565</v>
+        <v>5.495836316155725</v>
       </c>
       <c r="F5">
-        <v>55.55490008413953</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>4.080468853276381</v>
+        <v>58.57118036733206</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.49227462530331</v>
       </c>
       <c r="K5">
-        <v>16.47923784006786</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>12.53041772685763</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.37630625208798</v>
+        <v>18.13235454033682</v>
       </c>
       <c r="C6">
-        <v>13.05565533612497</v>
+        <v>12.29493206953807</v>
       </c>
       <c r="D6">
-        <v>8.668539146370604</v>
+        <v>4.395184515812881</v>
       </c>
       <c r="E6">
-        <v>25.67097454377404</v>
+        <v>5.498923561127381</v>
       </c>
       <c r="F6">
-        <v>55.375099649521</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>4.080468853276381</v>
+        <v>58.4263461640097</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.490533400604701</v>
       </c>
       <c r="K6">
-        <v>16.41521825015222</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>12.50757874411642</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.88326545349758</v>
+        <v>18.54670256177548</v>
       </c>
       <c r="C7">
-        <v>13.41024528182166</v>
+        <v>12.63210301707738</v>
       </c>
       <c r="D7">
-        <v>8.817691891332412</v>
+        <v>4.490883239577829</v>
       </c>
       <c r="E7">
-        <v>26.39172951805531</v>
+        <v>5.477684465903873</v>
       </c>
       <c r="F7">
-        <v>56.6171840707329</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>4.080468853276381</v>
+        <v>59.42886634753462</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.50283107805775</v>
       </c>
       <c r="K7">
-        <v>16.85637045368594</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>12.66673966009658</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>21.03142150285698</v>
+        <v>20.52297031183632</v>
       </c>
       <c r="C8">
-        <v>14.91837085660999</v>
+        <v>14.06142893620385</v>
       </c>
       <c r="D8">
-        <v>9.467338775773163</v>
+        <v>4.900121679948183</v>
       </c>
       <c r="E8">
-        <v>29.46456594880035</v>
+        <v>5.388610193665182</v>
       </c>
       <c r="F8">
-        <v>61.95403868709901</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>4.080468853276381</v>
+        <v>63.7814799267527</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.562573929462951</v>
       </c>
       <c r="K8">
-        <v>18.72674685649321</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>13.38404391958577</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.96425336208862</v>
+        <v>24.21151034358635</v>
       </c>
       <c r="C9">
-        <v>17.70654388033189</v>
+        <v>16.6699827097832</v>
       </c>
       <c r="D9">
-        <v>10.71814087144553</v>
+        <v>5.658815001445261</v>
       </c>
       <c r="E9">
-        <v>35.18318865991593</v>
+        <v>5.230168558935403</v>
       </c>
       <c r="F9">
-        <v>71.95392833443796</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>4.080468853276381</v>
+        <v>72.05715654183848</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.70197557537169</v>
       </c>
       <c r="K9">
-        <v>22.15705002084851</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>15.31035086413649</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.7325603660648</v>
+        <v>26.7705952142976</v>
       </c>
       <c r="C10">
-        <v>19.69429811769875</v>
+        <v>18.48820280635083</v>
       </c>
       <c r="D10">
-        <v>11.63585970898968</v>
+        <v>6.194232368174806</v>
       </c>
       <c r="E10">
-        <v>39.29862998329976</v>
+        <v>5.123163147213404</v>
       </c>
       <c r="F10">
-        <v>79.10799772575012</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>4.080468853276381</v>
+        <v>78.00063067699421</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.820810033926167</v>
       </c>
       <c r="K10">
-        <v>24.57787730894821</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.92790099024424</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.98065620614878</v>
+        <v>27.90891965220205</v>
       </c>
       <c r="C11">
-        <v>20.59843711223154</v>
+        <v>19.29987640530963</v>
       </c>
       <c r="D11">
-        <v>12.05771808747235</v>
+        <v>6.43452979995782</v>
       </c>
       <c r="E11">
-        <v>41.18402590109332</v>
+        <v>5.076402693615051</v>
       </c>
       <c r="F11">
-        <v>82.40634127187981</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>4.080468853276381</v>
+        <v>80.68561539554297</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.879207358118163</v>
       </c>
       <c r="K11">
-        <v>25.67139915768463</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>17.64580737111607</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>29.45337419359273</v>
+        <v>28.33699583457212</v>
       </c>
       <c r="C12">
-        <v>20.94229306036188</v>
+        <v>19.6056322052974</v>
       </c>
       <c r="D12">
-        <v>12.21866357100148</v>
+        <v>6.525218275402326</v>
       </c>
       <c r="E12">
-        <v>41.90361994712005</v>
+        <v>5.058959889679313</v>
       </c>
       <c r="F12">
-        <v>83.67299602432384</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>4.080468853276381</v>
+        <v>81.70102912862231</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.90202349367267</v>
       </c>
       <c r="K12">
-        <v>26.0859507305685</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>17.91557419030788</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>29.35152915667433</v>
+        <v>28.24492129148134</v>
       </c>
       <c r="C13">
-        <v>20.86814303788056</v>
+        <v>19.53984254562407</v>
       </c>
       <c r="D13">
-        <v>12.18393669518763</v>
+        <v>6.505697538934542</v>
       </c>
       <c r="E13">
-        <v>41.74831914079154</v>
+        <v>5.062704947345564</v>
       </c>
       <c r="F13">
-        <v>83.40006264277154</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>4.080468853276381</v>
+        <v>81.48237443660979</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.897076983039778</v>
       </c>
       <c r="K13">
-        <v>25.99661910139185</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>17.85755917179116</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>29.01953358380468</v>
+        <v>27.94419276832734</v>
       </c>
       <c r="C14">
-        <v>20.62668654006083</v>
+        <v>19.32505935805517</v>
       </c>
       <c r="D14">
-        <v>12.07093123643503</v>
+        <v>6.44199587917136</v>
       </c>
       <c r="E14">
-        <v>41.24308866376177</v>
+        <v>5.074962435198629</v>
       </c>
       <c r="F14">
-        <v>82.51049576959075</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>4.080468853276381</v>
+        <v>80.76917142165607</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.881069876749926</v>
       </c>
       <c r="K14">
-        <v>25.70548469757911</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>17.66803997444254</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.81624777060945</v>
+        <v>27.75962378146032</v>
       </c>
       <c r="C15">
-        <v>20.47903195769785</v>
+        <v>19.19330952063052</v>
       </c>
       <c r="D15">
-        <v>12.00188811691324</v>
+        <v>6.402942274210578</v>
       </c>
       <c r="E15">
-        <v>40.93448555360516</v>
+        <v>5.08250456905694</v>
       </c>
       <c r="F15">
-        <v>81.96592203499338</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>4.080468853276381</v>
+        <v>80.33218839760026</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.871359107838662</v>
       </c>
       <c r="K15">
-        <v>25.527270717435</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>17.55169808222766</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.65090342008792</v>
+        <v>26.69574246759161</v>
       </c>
       <c r="C16">
-        <v>19.6353263332442</v>
+        <v>18.43489687225259</v>
       </c>
       <c r="D16">
-        <v>11.60842270895295</v>
+        <v>6.178475716517124</v>
       </c>
       <c r="E16">
-        <v>39.17597453473753</v>
+        <v>5.126256692912608</v>
       </c>
       <c r="F16">
-        <v>78.89604505422729</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>4.080468853276381</v>
+        <v>77.82489044763273</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.817087317229515</v>
       </c>
       <c r="K16">
-        <v>24.50638173556975</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>16.88066315413271</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93419690039756</v>
+        <v>26.03694605907815</v>
       </c>
       <c r="C17">
-        <v>19.11864717995662</v>
+        <v>17.96607811609031</v>
       </c>
       <c r="D17">
-        <v>11.36851430809618</v>
+        <v>6.040040663159714</v>
       </c>
       <c r="E17">
-        <v>38.10289033103241</v>
+        <v>5.153580563727987</v>
       </c>
       <c r="F17">
-        <v>77.03785779027319</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>4.080468853276381</v>
+        <v>76.28278468724683</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.784956025910398</v>
       </c>
       <c r="K17">
-        <v>23.87910393885353</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16.46473404309662</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.52078481924175</v>
+        <v>25.65554199586631</v>
       </c>
       <c r="C18">
-        <v>18.82134745446204</v>
+        <v>17.69492900398543</v>
       </c>
       <c r="D18">
-        <v>11.23089487966348</v>
+        <v>5.960097289812853</v>
       </c>
       <c r="E18">
-        <v>37.48665101656532</v>
+        <v>5.169477703205219</v>
       </c>
       <c r="F18">
-        <v>75.96789576649758</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>4.080468853276381</v>
+        <v>75.39393810307575</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.766877915328139</v>
       </c>
       <c r="K18">
-        <v>23.51746785439278</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>16.22378139118407</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.38056327375378</v>
+        <v>25.52595908143095</v>
       </c>
       <c r="C19">
-        <v>18.72062761530226</v>
+        <v>17.60284876017027</v>
       </c>
       <c r="D19">
-        <v>11.18434842765962</v>
+        <v>5.932970641021221</v>
       </c>
       <c r="E19">
-        <v>37.27807397582694</v>
+        <v>5.174891638910042</v>
       </c>
       <c r="F19">
-        <v>75.60532286277389</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>4.080468853276381</v>
+        <v>75.09263437990987</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.760824026292448</v>
       </c>
       <c r="K19">
-        <v>23.3948385464468</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>16.1418898859856</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.01060298106063</v>
+        <v>26.10732811567282</v>
       </c>
       <c r="C20">
-        <v>19.17365148088456</v>
+        <v>18.01613555457122</v>
       </c>
       <c r="D20">
-        <v>11.39401120416304</v>
+        <v>6.054809283277677</v>
       </c>
       <c r="E20">
-        <v>38.21699817203444</v>
+        <v>5.150653217640615</v>
       </c>
       <c r="F20">
-        <v>77.23576303470946</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>4.080468853276381</v>
+        <v>76.44712930681111</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.788334229910229</v>
       </c>
       <c r="K20">
-        <v>23.94595596462623</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>16.50918529384519</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>29.11703012765698</v>
+        <v>28.03259836879456</v>
       </c>
       <c r="C21">
-        <v>20.69755387584941</v>
+        <v>19.38818447808811</v>
       </c>
       <c r="D21">
-        <v>12.10408570414774</v>
+        <v>6.460713444972783</v>
       </c>
       <c r="E21">
-        <v>41.39129834494853</v>
+        <v>5.071355036274618</v>
       </c>
       <c r="F21">
-        <v>82.77170901251222</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>4.080468853276381</v>
+        <v>80.97867954646962</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.885751791074084</v>
       </c>
       <c r="K21">
-        <v>25.79097062298237</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>17.72375867916971</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.4954377305798</v>
+        <v>29.27394933516101</v>
       </c>
       <c r="C22">
-        <v>21.70319134543202</v>
+        <v>20.27591330162353</v>
       </c>
       <c r="D22">
-        <v>12.57555725570739</v>
+        <v>6.724310826294403</v>
       </c>
       <c r="E22">
-        <v>43.50146282583902</v>
+        <v>5.021063642410196</v>
       </c>
       <c r="F22">
-        <v>86.46650090988935</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>4.080468853276381</v>
+        <v>83.93351175068237</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.953561613560183</v>
       </c>
       <c r="K22">
-        <v>27.00057812851017</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>18.50567774136261</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.75888895442111</v>
+        <v>28.61268118736604</v>
       </c>
       <c r="C23">
-        <v>21.1649551414481</v>
+        <v>19.80269966289714</v>
       </c>
       <c r="D23">
-        <v>12.32300470981713</v>
+        <v>6.583713920924211</v>
       </c>
       <c r="E23">
-        <v>42.37039277140476</v>
+        <v>5.047768823073398</v>
       </c>
       <c r="F23">
-        <v>84.49185035492314</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>4.080468853276381</v>
+        <v>82.35651553287833</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.916961218251584</v>
       </c>
       <c r="K23">
-        <v>26.35398920460923</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18.0892519313303</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.97606417422986</v>
+        <v>26.07551670512424</v>
       </c>
       <c r="C24">
-        <v>19.14878493366472</v>
+        <v>17.99350967394465</v>
       </c>
       <c r="D24">
-        <v>11.38248314084348</v>
+        <v>6.04813350833383</v>
       </c>
       <c r="E24">
-        <v>38.16540812820647</v>
+        <v>5.151976083517076</v>
       </c>
       <c r="F24">
-        <v>77.14629553612022</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>4.080468853276381</v>
+        <v>76.37283627014033</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.786805720519571</v>
       </c>
       <c r="K24">
-        <v>23.91573540805915</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>16.48909461741821</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.92579209539733</v>
+        <v>23.24213462340716</v>
       </c>
       <c r="C25">
-        <v>16.96655822984486</v>
+        <v>15.98326038645117</v>
       </c>
       <c r="D25">
-        <v>10.38119193287369</v>
+        <v>5.457850546317186</v>
       </c>
       <c r="E25">
-        <v>33.65999343183472</v>
+        <v>5.271341946283624</v>
       </c>
       <c r="F25">
-        <v>69.29106194553569</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>4.080468853276381</v>
+        <v>69.84495229655572</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.661611104571867</v>
       </c>
       <c r="K25">
-        <v>21.2503789331167</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
+        <v>14.69598067585959</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
@@ -421,37 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.05204176671155</v>
+        <v>18.64173273579063</v>
       </c>
       <c r="C2">
-        <v>14.43493759990684</v>
+        <v>6.526677680413171</v>
       </c>
       <c r="D2">
-        <v>5.007908716678772</v>
+        <v>2.139438377898447</v>
       </c>
       <c r="E2">
-        <v>5.365591054139294</v>
+        <v>6.207073003677013</v>
       </c>
       <c r="F2">
-        <v>64.94302212652218</v>
+        <v>41.65390259416548</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.580173714488875</v>
+        <v>6.233051644465724</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>14.77810408946216</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.864669939229688</v>
       </c>
       <c r="M2">
-        <v>13.58184663465603</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>18.29379584521677</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -462,37 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.49544587619361</v>
+        <v>17.79796031180284</v>
       </c>
       <c r="C3">
-        <v>13.33644647116435</v>
+        <v>6.080673555339422</v>
       </c>
       <c r="D3">
-        <v>4.691868461263534</v>
+        <v>2.128689981341781</v>
       </c>
       <c r="E3">
-        <v>5.433596029145997</v>
+        <v>6.195233684659797</v>
       </c>
       <c r="F3">
-        <v>61.55422909592212</v>
+        <v>40.93144148890492</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.530747194921618</v>
+        <v>6.268078262819133</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>14.14623665520964</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.777600288610448</v>
       </c>
       <c r="M3">
-        <v>13.01197877834782</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>18.40575436275641</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -503,37 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.55152594096379</v>
+        <v>17.27298234826936</v>
       </c>
       <c r="C4">
-        <v>12.63601570255244</v>
+        <v>5.792838768070982</v>
       </c>
       <c r="D4">
-        <v>4.49199579637055</v>
+        <v>2.121504986058045</v>
       </c>
       <c r="E4">
-        <v>5.477438508016943</v>
+        <v>6.190250343283322</v>
       </c>
       <c r="F4">
-        <v>59.44055900686597</v>
+        <v>40.50840047909769</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.502977862847178</v>
+        <v>6.2910107249739</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>13.75466379689448</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.727200212399165</v>
       </c>
       <c r="M4">
-        <v>12.66861053197247</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>18.47940475098179</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -544,37 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.19231400525165</v>
+        <v>17.05759719338579</v>
       </c>
       <c r="C5">
-        <v>12.34385634667229</v>
+        <v>5.671986498689541</v>
       </c>
       <c r="D5">
-        <v>4.409048878731257</v>
+        <v>2.118433604274965</v>
       </c>
       <c r="E5">
-        <v>5.495836316155725</v>
+        <v>6.188785219527484</v>
       </c>
       <c r="F5">
-        <v>58.57118036733206</v>
+        <v>40.34115075410478</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.49227462530331</v>
+        <v>6.300712621558331</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>13.59439945465601</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.707431373358387</v>
       </c>
       <c r="M5">
-        <v>12.53041772685763</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>18.51061981608537</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -585,37 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.13235454033682</v>
+        <v>17.02175399873829</v>
       </c>
       <c r="C6">
-        <v>12.29493206953807</v>
+        <v>5.651703120188135</v>
       </c>
       <c r="D6">
-        <v>4.395184515812881</v>
+        <v>2.11791505156475</v>
       </c>
       <c r="E6">
-        <v>5.498923561127381</v>
+        <v>6.188575830364323</v>
       </c>
       <c r="F6">
-        <v>58.4263461640097</v>
+        <v>40.31368881304351</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.490533400604701</v>
+        <v>6.302345109945687</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>13.5677524055636</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.704195231438812</v>
       </c>
       <c r="M6">
-        <v>12.50757874411642</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>18.51587476395247</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -626,37 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.54670256177548</v>
+        <v>17.27008306557155</v>
       </c>
       <c r="C7">
-        <v>12.63210301707738</v>
+        <v>5.791223365798066</v>
       </c>
       <c r="D7">
-        <v>4.490883239577829</v>
+        <v>2.121464140089149</v>
       </c>
       <c r="E7">
-        <v>5.477684465903873</v>
+        <v>6.19022830605071</v>
       </c>
       <c r="F7">
-        <v>59.42886634753462</v>
+        <v>40.50612410544347</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.50283107805775</v>
+        <v>6.291140126019466</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>13.75250493140342</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.726930487706817</v>
       </c>
       <c r="M7">
-        <v>12.66673966009658</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>18.47982090196347</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -667,37 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.52297031183632</v>
+        <v>18.35238793138835</v>
       </c>
       <c r="C8">
-        <v>14.06142893620385</v>
+        <v>6.375772878678896</v>
       </c>
       <c r="D8">
-        <v>4.900121679948183</v>
+        <v>2.135856095002844</v>
       </c>
       <c r="E8">
-        <v>5.388610193665182</v>
+        <v>6.202510768916778</v>
       </c>
       <c r="F8">
-        <v>63.7814799267527</v>
+        <v>41.40051840601516</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.562573929462951</v>
+        <v>6.244831689469035</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>14.56110177438965</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.834013168810076</v>
       </c>
       <c r="M8">
-        <v>13.38404391958577</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>18.33136040824619</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -708,37 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.21151034358635</v>
+        <v>20.40987430059008</v>
       </c>
       <c r="C9">
-        <v>16.6699827097832</v>
+        <v>7.413121107897827</v>
       </c>
       <c r="D9">
-        <v>5.658815001445261</v>
+        <v>2.159267173390369</v>
       </c>
       <c r="E9">
-        <v>5.230168558935403</v>
+        <v>6.245156765307105</v>
       </c>
       <c r="F9">
-        <v>72.05715654183848</v>
+        <v>43.31858897532697</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.70197557537169</v>
+        <v>6.165429281413132</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>16.11043333306279</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.068277063531061</v>
       </c>
       <c r="M9">
-        <v>15.31035086413649</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>18.0807687980148</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -749,37 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.7705952142976</v>
+        <v>21.87145644241457</v>
       </c>
       <c r="C10">
-        <v>18.48820280635083</v>
+        <v>8.111959826539893</v>
       </c>
       <c r="D10">
-        <v>6.194232368174806</v>
+        <v>2.173308588622512</v>
       </c>
       <c r="E10">
-        <v>5.123163147213404</v>
+        <v>6.288402453627445</v>
       </c>
       <c r="F10">
-        <v>78.00063067699421</v>
+        <v>44.82974397315377</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.820810033926167</v>
+        <v>6.114195942702395</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.21848023986439</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.255190293601715</v>
       </c>
       <c r="M10">
-        <v>16.92790099024424</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>17.92386138420662</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -790,37 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.90891965220205</v>
+        <v>22.5241469333907</v>
       </c>
       <c r="C11">
-        <v>19.29987640530963</v>
+        <v>8.416907679203538</v>
       </c>
       <c r="D11">
-        <v>6.43452979995782</v>
+        <v>2.178962237512605</v>
       </c>
       <c r="E11">
-        <v>5.076402693615051</v>
+        <v>6.310798928098717</v>
       </c>
       <c r="F11">
-        <v>80.68561539554297</v>
+        <v>45.53993818429241</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.879207358118163</v>
+        <v>6.092470370255355</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>17.71491304902894</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.343448326441908</v>
       </c>
       <c r="M11">
-        <v>17.64580737111607</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>17.85902491926219</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -831,37 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.33699583457212</v>
+        <v>22.76949106779256</v>
       </c>
       <c r="C12">
-        <v>19.6056322052974</v>
+        <v>8.530591083724396</v>
       </c>
       <c r="D12">
-        <v>6.525218275402326</v>
+        <v>2.18099359292381</v>
       </c>
       <c r="E12">
-        <v>5.058959889679313</v>
+        <v>6.31968332217933</v>
       </c>
       <c r="F12">
-        <v>81.70102912862231</v>
+        <v>45.81221097188972</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.90202349367267</v>
+        <v>6.084474665498734</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>17.90175317671099</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.377336224701804</v>
       </c>
       <c r="M12">
-        <v>17.91557419030788</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>17.83547498098604</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -872,37 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.24492129148134</v>
+        <v>22.71673314819884</v>
       </c>
       <c r="C13">
-        <v>19.53984254562407</v>
+        <v>8.506185925241494</v>
       </c>
       <c r="D13">
-        <v>6.505697538934542</v>
+        <v>2.180561041202142</v>
       </c>
       <c r="E13">
-        <v>5.062704947345564</v>
+        <v>6.317751776973545</v>
       </c>
       <c r="F13">
-        <v>81.48237443660979</v>
+        <v>45.75342243104959</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.897076983039778</v>
+        <v>6.086186327521756</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.86156538550325</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.370017057507577</v>
       </c>
       <c r="M13">
-        <v>17.85755917179116</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>17.84050124916036</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -913,37 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.94419276832734</v>
+        <v>22.54436814961561</v>
       </c>
       <c r="C14">
-        <v>19.32505935805517</v>
+        <v>8.426296007946483</v>
       </c>
       <c r="D14">
-        <v>6.44199587917136</v>
+        <v>2.179131577211106</v>
       </c>
       <c r="E14">
-        <v>5.074962435198629</v>
+        <v>6.311521699720654</v>
       </c>
       <c r="F14">
-        <v>80.76917142165607</v>
+        <v>45.56227088539805</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.881069876749926</v>
+        <v>6.091807898578434</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>17.73030770099266</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.346226936054018</v>
       </c>
       <c r="M14">
-        <v>17.66803997444254</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>17.85706698709697</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -954,37 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.75962378146032</v>
+        <v>22.43855197778102</v>
       </c>
       <c r="C15">
-        <v>19.19330952063052</v>
+        <v>8.377129708914117</v>
       </c>
       <c r="D15">
-        <v>6.402942274210578</v>
+        <v>2.178241601557519</v>
       </c>
       <c r="E15">
-        <v>5.08250456905694</v>
+        <v>6.307758482043638</v>
       </c>
       <c r="F15">
-        <v>80.33218839760026</v>
+        <v>45.44562201793641</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.871359107838662</v>
+        <v>6.095281522117183</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.64975802135563</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.3317156458525</v>
       </c>
       <c r="M15">
-        <v>17.55169808222766</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>17.86734644960859</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -995,37 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.69574246759161</v>
+        <v>21.8285500322245</v>
       </c>
       <c r="C16">
-        <v>18.43489687225259</v>
+        <v>8.091775823851201</v>
       </c>
       <c r="D16">
-        <v>6.178475716517124</v>
+        <v>2.172923998066061</v>
       </c>
       <c r="E16">
-        <v>5.126256692912608</v>
+        <v>6.286994581526921</v>
       </c>
       <c r="F16">
-        <v>77.82489044763273</v>
+        <v>44.78379414263773</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.817087317229515</v>
+        <v>6.115647898078993</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.18587865600658</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.249487549462784</v>
       </c>
       <c r="M16">
-        <v>16.88066315413271</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>17.92823533228156</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1036,37 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.03694605907815</v>
+        <v>21.45115429819132</v>
       </c>
       <c r="C17">
-        <v>17.96607811609031</v>
+        <v>7.913449165406846</v>
       </c>
       <c r="D17">
-        <v>6.040040663159714</v>
+        <v>2.169470998802633</v>
       </c>
       <c r="E17">
-        <v>5.153580563727987</v>
+        <v>6.274962308710386</v>
       </c>
       <c r="F17">
-        <v>76.28278468724683</v>
+        <v>44.38365308995898</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.784956025910398</v>
+        <v>6.128549557196934</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.89930462606226</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.199871434108639</v>
       </c>
       <c r="M17">
-        <v>16.46473404309662</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>17.96730571795038</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1077,37 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.65554199586631</v>
+        <v>21.23294004792554</v>
       </c>
       <c r="C18">
-        <v>17.69492900398543</v>
+        <v>7.809656236114733</v>
       </c>
       <c r="D18">
-        <v>5.960097289812853</v>
+        <v>2.167416092430709</v>
       </c>
       <c r="E18">
-        <v>5.169477703205219</v>
+        <v>6.268297305944562</v>
       </c>
       <c r="F18">
-        <v>75.39393810307575</v>
+        <v>44.15563999459101</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.766877915328139</v>
+        <v>6.136118768700731</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.73375847464095</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.171637386750314</v>
       </c>
       <c r="M18">
-        <v>16.22378139118407</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>17.99038959765071</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1118,37 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.52595908143095</v>
+        <v>21.15886213987046</v>
       </c>
       <c r="C19">
-        <v>17.60284876017027</v>
+        <v>7.774301473067446</v>
       </c>
       <c r="D19">
-        <v>5.932970641021221</v>
+        <v>2.166708636928846</v>
       </c>
       <c r="E19">
-        <v>5.174891638910042</v>
+        <v>6.266084213379056</v>
       </c>
       <c r="F19">
-        <v>75.09263437990987</v>
+        <v>44.07880418518196</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.760824026292448</v>
+        <v>6.138706968301515</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.67758643611644</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.162129977651036</v>
       </c>
       <c r="M19">
-        <v>16.1418898859856</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>17.99830868923993</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1159,37 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.10732811567282</v>
+        <v>21.49144792406839</v>
       </c>
       <c r="C20">
-        <v>18.01613555457122</v>
+        <v>7.932558555127914</v>
       </c>
       <c r="D20">
-        <v>6.054809283277677</v>
+        <v>2.169845729511209</v>
       </c>
       <c r="E20">
-        <v>5.150653217640615</v>
+        <v>6.276216624494493</v>
       </c>
       <c r="F20">
-        <v>76.44712930681111</v>
+        <v>44.42602717498777</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.788334229910229</v>
+        <v>6.127160755151412</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.92988553243789</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.205121701041516</v>
       </c>
       <c r="M20">
-        <v>16.50918529384519</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>17.96308288429621</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1200,37 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.03259836879456</v>
+        <v>22.59504550741719</v>
       </c>
       <c r="C21">
-        <v>19.38818447808811</v>
+        <v>8.449809706750685</v>
       </c>
       <c r="D21">
-        <v>6.460713444972783</v>
+        <v>2.179554451031021</v>
       </c>
       <c r="E21">
-        <v>5.071355036274618</v>
+        <v>6.313340581479227</v>
       </c>
       <c r="F21">
-        <v>80.97867954646962</v>
+        <v>45.6183255138171</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.885751791074084</v>
+        <v>6.090150395188519</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>17.76889269127843</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.353201984524167</v>
       </c>
       <c r="M21">
-        <v>17.72375867916971</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>17.85217350151373</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1241,37 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.27394933516101</v>
+        <v>23.30572618712366</v>
       </c>
       <c r="C22">
-        <v>20.27591330162353</v>
+        <v>8.777445291343057</v>
       </c>
       <c r="D22">
-        <v>6.724310826294403</v>
+        <v>2.185259188063478</v>
       </c>
       <c r="E22">
-        <v>5.021063642410196</v>
+        <v>6.339960153734737</v>
       </c>
       <c r="F22">
-        <v>83.93351175068237</v>
+        <v>46.41706389614146</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.953561613560183</v>
+        <v>6.067312397207908</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.31053698447599</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.452702677567431</v>
       </c>
       <c r="M22">
-        <v>18.50567774136261</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>17.78556349040856</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1282,37 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.61268118736604</v>
+        <v>22.92740156612245</v>
       </c>
       <c r="C23">
-        <v>19.80269966289714</v>
+        <v>8.603508479049831</v>
       </c>
       <c r="D23">
-        <v>6.583713920924211</v>
+        <v>2.182274401783521</v>
       </c>
       <c r="E23">
-        <v>5.047768823073398</v>
+        <v>6.325533076848022</v>
       </c>
       <c r="F23">
-        <v>82.35651553287833</v>
+        <v>45.98894996254639</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.916961218251584</v>
+        <v>6.079376449198262</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.02207322613979</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.399347015484639</v>
       </c>
       <c r="M23">
-        <v>18.0892519313303</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>17.8205546038582</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1323,37 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.07551670512424</v>
+        <v>21.47323504666602</v>
       </c>
       <c r="C24">
-        <v>17.99350967394465</v>
+        <v>7.923923162710106</v>
       </c>
       <c r="D24">
-        <v>6.04813350833383</v>
+        <v>2.169676530650897</v>
       </c>
       <c r="E24">
-        <v>5.151976083517076</v>
+        <v>6.275648762683902</v>
       </c>
       <c r="F24">
-        <v>76.37283627014033</v>
+        <v>44.40686352232385</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.786805720519571</v>
+        <v>6.127788159792652</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.91606236390729</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.202747149333439</v>
       </c>
       <c r="M24">
-        <v>16.48909461741821</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>17.96499009520795</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1364,37 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.24213462340716</v>
+        <v>19.86146289269955</v>
       </c>
       <c r="C25">
-        <v>15.98326038645117</v>
+        <v>7.143850469885632</v>
       </c>
       <c r="D25">
-        <v>5.457850546317186</v>
+        <v>2.153472268337927</v>
       </c>
       <c r="E25">
-        <v>5.271341946283624</v>
+        <v>6.231572028293218</v>
       </c>
       <c r="F25">
-        <v>69.84495229655572</v>
+        <v>42.78195105345316</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.661611104571867</v>
+        <v>6.185674258756125</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.69614078222805</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.002304131226553</v>
       </c>
       <c r="M25">
-        <v>14.69598067585959</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>18.14398068575615</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.64173273579063</v>
+        <v>23.1101482218129</v>
       </c>
       <c r="C2">
-        <v>6.526677680413171</v>
+        <v>4.362399951498389</v>
       </c>
       <c r="D2">
-        <v>2.139438377898447</v>
+        <v>4.072610582564339</v>
       </c>
       <c r="E2">
-        <v>6.207073003677013</v>
+        <v>10.98770551718572</v>
       </c>
       <c r="F2">
-        <v>41.65390259416548</v>
+        <v>55.77520609594337</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.233051644465724</v>
+        <v>10.54774182860854</v>
       </c>
       <c r="K2">
-        <v>14.77810408946216</v>
+        <v>19.01385598288839</v>
       </c>
       <c r="L2">
-        <v>6.864669939229688</v>
+        <v>11.57069076593213</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.29379584521677</v>
+        <v>26.33251820137312</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.79796031180284</v>
+        <v>23.01054385223803</v>
       </c>
       <c r="C3">
-        <v>6.080673555339422</v>
+        <v>4.225191698887479</v>
       </c>
       <c r="D3">
-        <v>2.128689981341781</v>
+        <v>4.079697481276645</v>
       </c>
       <c r="E3">
-        <v>6.195233684659797</v>
+        <v>11.00629192790191</v>
       </c>
       <c r="F3">
-        <v>40.93144148890492</v>
+        <v>55.74029085385012</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.268078262819133</v>
+        <v>10.56528018060978</v>
       </c>
       <c r="K3">
-        <v>14.14623665520964</v>
+        <v>18.94947017374794</v>
       </c>
       <c r="L3">
-        <v>6.777600288610448</v>
+        <v>11.58520585156443</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40575436275641</v>
+        <v>26.36910687975013</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.27298234826936</v>
+        <v>22.95471465578982</v>
       </c>
       <c r="C4">
-        <v>5.792838768070982</v>
+        <v>4.140185687579641</v>
       </c>
       <c r="D4">
-        <v>2.121504986058045</v>
+        <v>4.084579972642078</v>
       </c>
       <c r="E4">
-        <v>6.190250343283322</v>
+        <v>11.01884644128625</v>
       </c>
       <c r="F4">
-        <v>40.50840047909769</v>
+        <v>55.72818307309119</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.2910107249739</v>
+        <v>10.57678869411716</v>
       </c>
       <c r="K4">
-        <v>13.75466379689448</v>
+        <v>18.91422504216142</v>
       </c>
       <c r="L4">
-        <v>6.727200212399165</v>
+        <v>11.59577601372121</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.47940475098179</v>
+        <v>26.39343557132002</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.05759719338579</v>
+        <v>22.93332124749109</v>
       </c>
       <c r="C5">
-        <v>5.671986498689541</v>
+        <v>4.105417302812327</v>
       </c>
       <c r="D5">
-        <v>2.118433604274965</v>
+        <v>4.086703563336675</v>
       </c>
       <c r="E5">
-        <v>6.188785219527484</v>
+        <v>11.02425022335524</v>
       </c>
       <c r="F5">
-        <v>40.34115075410478</v>
+        <v>55.7255980272913</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.300712621558331</v>
+        <v>10.58166498311215</v>
       </c>
       <c r="K5">
-        <v>13.59439945465601</v>
+        <v>18.90095104056503</v>
       </c>
       <c r="L5">
-        <v>6.707431373358387</v>
+        <v>11.60050059881678</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.51061981608537</v>
+        <v>26.40381832645474</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.02175399873829</v>
+        <v>22.92985135312875</v>
       </c>
       <c r="C6">
-        <v>5.651703120188135</v>
+        <v>4.099638247600146</v>
       </c>
       <c r="D6">
-        <v>2.11791505156475</v>
+        <v>4.08706428451957</v>
       </c>
       <c r="E6">
-        <v>6.188575830364323</v>
+        <v>11.02516490779648</v>
       </c>
       <c r="F6">
-        <v>40.31368881304351</v>
+        <v>55.72531071282231</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.302345109945687</v>
+        <v>10.58248596237753</v>
       </c>
       <c r="K6">
-        <v>13.5677524055636</v>
+        <v>18.89881293580211</v>
       </c>
       <c r="L6">
-        <v>6.704195231438812</v>
+        <v>11.60131031496328</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.51587476395247</v>
+        <v>26.40557068202597</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.27008306557155</v>
+        <v>22.95442061871023</v>
       </c>
       <c r="C7">
-        <v>5.791223365798066</v>
+        <v>4.139717219775782</v>
       </c>
       <c r="D7">
-        <v>2.121464140089149</v>
+        <v>4.084608069309725</v>
       </c>
       <c r="E7">
-        <v>6.19022830605071</v>
+        <v>11.0189181530268</v>
       </c>
       <c r="F7">
-        <v>40.50612410544347</v>
+        <v>55.72813869669378</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.291140126019466</v>
+        <v>10.57685370185932</v>
       </c>
       <c r="K7">
-        <v>13.75250493140342</v>
+        <v>18.91404160353064</v>
       </c>
       <c r="L7">
-        <v>6.726930487706817</v>
+        <v>11.59583804174452</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.47982090196347</v>
+        <v>26.39357369926649</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.35238793138835</v>
+        <v>23.07470985126993</v>
       </c>
       <c r="C8">
-        <v>6.375772878678896</v>
+        <v>4.315284923833465</v>
       </c>
       <c r="D8">
-        <v>2.135856095002844</v>
+        <v>4.074944146152874</v>
       </c>
       <c r="E8">
-        <v>6.202510768916778</v>
+        <v>10.99387728485627</v>
       </c>
       <c r="F8">
-        <v>41.40051840601516</v>
+        <v>55.76123281552788</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.244831689469035</v>
+        <v>10.5536357419673</v>
       </c>
       <c r="K8">
-        <v>14.56110177438965</v>
+        <v>18.99077240310485</v>
       </c>
       <c r="L8">
-        <v>6.834013168810076</v>
+        <v>11.57535166643908</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.33136040824619</v>
+        <v>26.344747367127</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.40987430059008</v>
+        <v>23.35201902198728</v>
       </c>
       <c r="C9">
-        <v>7.413121107897827</v>
+        <v>4.650974767891729</v>
       </c>
       <c r="D9">
-        <v>2.159267173390369</v>
+        <v>4.06019035580608</v>
       </c>
       <c r="E9">
-        <v>6.245156765307105</v>
+        <v>10.95381647650091</v>
       </c>
       <c r="F9">
-        <v>43.31858897532697</v>
+        <v>55.89999844643978</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.165429281413132</v>
+        <v>10.51395716349031</v>
       </c>
       <c r="K9">
-        <v>16.11043333306279</v>
+        <v>19.17475127011004</v>
       </c>
       <c r="L9">
-        <v>7.068277063531061</v>
+        <v>11.54831855604587</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.0807687980148</v>
+        <v>26.26377667652619</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.87145644241457</v>
+        <v>23.57975211656561</v>
       </c>
       <c r="C10">
-        <v>8.111959826539893</v>
+        <v>4.889233984693877</v>
       </c>
       <c r="D10">
-        <v>2.173308588622512</v>
+        <v>4.051886533502115</v>
       </c>
       <c r="E10">
-        <v>6.288402453627445</v>
+        <v>10.92987039635461</v>
       </c>
       <c r="F10">
-        <v>44.82974397315377</v>
+        <v>56.04670144949119</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.114195942702395</v>
+        <v>10.4883467107245</v>
       </c>
       <c r="K10">
-        <v>17.21848023986439</v>
+        <v>19.3295833339406</v>
       </c>
       <c r="L10">
-        <v>7.255190293601715</v>
+        <v>11.53644792998574</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.92386138420662</v>
+        <v>26.21328973538322</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.5241469333907</v>
+        <v>23.68826327015273</v>
       </c>
       <c r="C11">
-        <v>8.416907679203538</v>
+        <v>4.995235995653541</v>
       </c>
       <c r="D11">
-        <v>2.178962237512605</v>
+        <v>4.048654557087604</v>
       </c>
       <c r="E11">
-        <v>6.310798928098717</v>
+        <v>10.92016221349583</v>
       </c>
       <c r="F11">
-        <v>45.53993818429241</v>
+        <v>56.12307334761738</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.092470370255355</v>
+        <v>10.47745935491509</v>
       </c>
       <c r="K11">
-        <v>17.71491304902894</v>
+        <v>19.4041031504389</v>
       </c>
       <c r="L11">
-        <v>7.343448326441908</v>
+        <v>11.53277721150347</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.85902491926219</v>
+        <v>26.19227545166539</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.76949106779256</v>
+        <v>23.73003279284234</v>
       </c>
       <c r="C12">
-        <v>8.530591083724396</v>
+        <v>5.034992114536606</v>
       </c>
       <c r="D12">
-        <v>2.18099359292381</v>
+        <v>4.047508705461292</v>
       </c>
       <c r="E12">
-        <v>6.31968332217933</v>
+        <v>10.91665588911216</v>
       </c>
       <c r="F12">
-        <v>45.81221097188972</v>
+        <v>56.15336953863673</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.084474665498734</v>
+        <v>10.47344588919437</v>
       </c>
       <c r="K12">
-        <v>17.90175317671099</v>
+        <v>19.43289198901616</v>
       </c>
       <c r="L12">
-        <v>7.377336224701804</v>
+        <v>11.53163527125232</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.83547498098604</v>
+        <v>26.18459859264223</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.71673314819884</v>
+        <v>23.72100725126482</v>
       </c>
       <c r="C13">
-        <v>8.506185925241494</v>
+        <v>5.026447645314856</v>
       </c>
       <c r="D13">
-        <v>2.180561041202142</v>
+        <v>4.047752021425639</v>
       </c>
       <c r="E13">
-        <v>6.317751776973545</v>
+        <v>10.91740348731069</v>
       </c>
       <c r="F13">
-        <v>45.75342243104959</v>
+        <v>56.14678369210614</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.086186327521756</v>
+        <v>10.47430540385768</v>
       </c>
       <c r="K13">
-        <v>17.86156538550325</v>
+        <v>19.42666674826164</v>
       </c>
       <c r="L13">
-        <v>7.370017057507577</v>
+        <v>11.53187018518095</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.84050124916036</v>
+        <v>26.18623945264617</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.54436814961561</v>
+        <v>23.69168623614494</v>
       </c>
       <c r="C14">
-        <v>8.426296007946483</v>
+        <v>4.998514686352348</v>
       </c>
       <c r="D14">
-        <v>2.179131577211106</v>
+        <v>4.048558725769997</v>
       </c>
       <c r="E14">
-        <v>6.311521699720654</v>
+        <v>10.91987034255486</v>
       </c>
       <c r="F14">
-        <v>45.56227088539805</v>
+        <v>56.12553832096074</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.091807898578434</v>
+        <v>10.47712697547649</v>
       </c>
       <c r="K14">
-        <v>17.73030770099266</v>
+        <v>19.40646031093001</v>
       </c>
       <c r="L14">
-        <v>7.346226936054018</v>
+        <v>11.53267829510309</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.85706698709697</v>
+        <v>26.19163824413332</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.43855197778102</v>
+        <v>23.67381380443893</v>
       </c>
       <c r="C15">
-        <v>8.377129708914117</v>
+        <v>4.981353696930713</v>
       </c>
       <c r="D15">
-        <v>2.178241601557519</v>
+        <v>4.049063004676991</v>
       </c>
       <c r="E15">
-        <v>6.307758482043638</v>
+        <v>10.92140348214262</v>
       </c>
       <c r="F15">
-        <v>45.44562201793641</v>
+        <v>56.11270377567228</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.095281522117183</v>
+        <v>10.47886949776773</v>
       </c>
       <c r="K15">
-        <v>17.64975802135563</v>
+        <v>19.3941569463227</v>
       </c>
       <c r="L15">
-        <v>7.3317156458525</v>
+        <v>11.53320557455769</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.86734644960859</v>
+        <v>26.19498172846403</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.8285500322245</v>
+        <v>23.57275718296534</v>
       </c>
       <c r="C16">
-        <v>8.091775823851201</v>
+        <v>4.882254870139004</v>
       </c>
       <c r="D16">
-        <v>2.172923998066061</v>
+        <v>4.052108692134216</v>
       </c>
       <c r="E16">
-        <v>6.286994581526921</v>
+        <v>10.93052865615662</v>
       </c>
       <c r="F16">
-        <v>44.78379414263773</v>
+        <v>56.04190345508962</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.115647898078993</v>
+        <v>10.48907354582306</v>
       </c>
       <c r="K16">
-        <v>17.18587865600658</v>
+        <v>19.32479401296277</v>
       </c>
       <c r="L16">
-        <v>7.249487549462784</v>
+        <v>11.53672256912974</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.92823533228156</v>
+        <v>26.21470235956128</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.45115429819132</v>
+        <v>23.51200138025469</v>
       </c>
       <c r="C17">
-        <v>7.913449165406846</v>
+        <v>4.820819368676419</v>
       </c>
       <c r="D17">
-        <v>2.169470998802633</v>
+        <v>4.054116541594304</v>
       </c>
       <c r="E17">
-        <v>6.274962308710386</v>
+        <v>10.93642984729137</v>
       </c>
       <c r="F17">
-        <v>44.38365308995898</v>
+        <v>56.00093116000879</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.128549557196934</v>
+        <v>10.49552854572491</v>
       </c>
       <c r="K17">
-        <v>16.89930462606226</v>
+        <v>19.28327628831538</v>
       </c>
       <c r="L17">
-        <v>7.199871434108639</v>
+        <v>11.53932264791674</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.96730571795038</v>
+        <v>26.22730042436344</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.23294004792554</v>
+        <v>23.47752055678899</v>
       </c>
       <c r="C18">
-        <v>7.809656236114733</v>
+        <v>4.785261180453179</v>
       </c>
       <c r="D18">
-        <v>2.167416092430709</v>
+        <v>4.0553227710986</v>
       </c>
       <c r="E18">
-        <v>6.268297305944562</v>
+        <v>10.93993562243807</v>
       </c>
       <c r="F18">
-        <v>44.15563999459101</v>
+        <v>55.97827263111882</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.136118768700731</v>
+        <v>10.49931312722722</v>
       </c>
       <c r="K18">
-        <v>16.73375847464095</v>
+        <v>19.25978210564942</v>
       </c>
       <c r="L18">
-        <v>7.171637386750314</v>
+        <v>11.54098095310744</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.99038959765071</v>
+        <v>26.23473027253592</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.15886213987046</v>
+        <v>23.46592651885978</v>
       </c>
       <c r="C19">
-        <v>7.774301473067446</v>
+        <v>4.773184987425664</v>
       </c>
       <c r="D19">
-        <v>2.166708636928846</v>
+        <v>4.05574001452256</v>
       </c>
       <c r="E19">
-        <v>6.266084213379056</v>
+        <v>10.94114179278251</v>
       </c>
       <c r="F19">
-        <v>44.07880418518196</v>
+        <v>55.97075701134172</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.138706968301515</v>
+        <v>10.500606870899</v>
       </c>
       <c r="K19">
-        <v>16.67758643611644</v>
+        <v>19.25189415068563</v>
       </c>
       <c r="L19">
-        <v>7.162129977651036</v>
+        <v>11.54157040602644</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.99830868923993</v>
+        <v>26.23727745404478</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.49144792406839</v>
+        <v>23.51842108379953</v>
       </c>
       <c r="C20">
-        <v>7.932558555127914</v>
+        <v>4.827382587399764</v>
       </c>
       <c r="D20">
-        <v>2.169845729511209</v>
+        <v>4.053897489183736</v>
       </c>
       <c r="E20">
-        <v>6.276216624494493</v>
+        <v>10.93579011198771</v>
       </c>
       <c r="F20">
-        <v>44.42602717498777</v>
+        <v>56.0051988597822</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.127160755151412</v>
+        <v>10.49483396791938</v>
       </c>
       <c r="K20">
-        <v>16.92988553243789</v>
+        <v>19.28765612658356</v>
       </c>
       <c r="L20">
-        <v>7.205121701041516</v>
+        <v>11.53902901907159</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.96308288429621</v>
+        <v>26.22594031880386</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.59504550741719</v>
+        <v>23.70028033803914</v>
       </c>
       <c r="C21">
-        <v>8.449809706750685</v>
+        <v>5.006730021582906</v>
       </c>
       <c r="D21">
-        <v>2.179554451031021</v>
+        <v>4.048319662808487</v>
       </c>
       <c r="E21">
-        <v>6.313340581479227</v>
+        <v>10.91914115849836</v>
       </c>
       <c r="F21">
-        <v>45.6183255138171</v>
+        <v>56.13174134690456</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.090150395188519</v>
+        <v>10.47629524701406</v>
       </c>
       <c r="K21">
-        <v>17.76889269127843</v>
+        <v>19.41238011335625</v>
       </c>
       <c r="L21">
-        <v>7.353201984524167</v>
+        <v>11.53243420582686</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.85217350151373</v>
+        <v>26.19004486726402</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.30572618712366</v>
+        <v>23.82307808317387</v>
       </c>
       <c r="C22">
-        <v>8.777445291343057</v>
+        <v>5.121686163110411</v>
       </c>
       <c r="D22">
-        <v>2.185259188063478</v>
+        <v>4.045128840527874</v>
       </c>
       <c r="E22">
-        <v>6.339960153734737</v>
+        <v>10.90925051102115</v>
       </c>
       <c r="F22">
-        <v>46.41706389614146</v>
+        <v>56.22245801346156</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.067312397207908</v>
+        <v>10.46481626518694</v>
       </c>
       <c r="K22">
-        <v>18.31053698447599</v>
+        <v>19.49720679468923</v>
       </c>
       <c r="L22">
-        <v>7.452702677567431</v>
+        <v>11.52956979682734</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.78556349040856</v>
+        <v>26.16822181542914</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.92740156612245</v>
+        <v>23.75718744640107</v>
       </c>
       <c r="C23">
-        <v>8.603508479049831</v>
+        <v>5.060551194476993</v>
       </c>
       <c r="D23">
-        <v>2.182274401783521</v>
+        <v>4.046790383085048</v>
       </c>
       <c r="E23">
-        <v>6.325533076848022</v>
+        <v>10.91443886412433</v>
       </c>
       <c r="F23">
-        <v>45.98894996254639</v>
+        <v>56.1733111255877</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.079376449198262</v>
+        <v>10.47088463781852</v>
       </c>
       <c r="K23">
-        <v>18.02207322613979</v>
+        <v>19.45163622647957</v>
       </c>
       <c r="L23">
-        <v>7.399347015484639</v>
+        <v>11.53096651889927</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.8205546038582</v>
+        <v>26.17971941950336</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.47323504666602</v>
+        <v>23.51551733670428</v>
       </c>
       <c r="C24">
-        <v>7.923923162710106</v>
+        <v>4.824416094630019</v>
       </c>
       <c r="D24">
-        <v>2.169676530650897</v>
+        <v>4.0539963611273</v>
       </c>
       <c r="E24">
-        <v>6.275648762683902</v>
+        <v>10.93607898399486</v>
       </c>
       <c r="F24">
-        <v>44.40686352232385</v>
+        <v>56.00326663791232</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.127788159792652</v>
+        <v>10.49514775752357</v>
       </c>
       <c r="K24">
-        <v>16.91606236390729</v>
+        <v>19.28567483256523</v>
       </c>
       <c r="L24">
-        <v>7.202747149333439</v>
+        <v>11.53916125939789</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.96499009520795</v>
+        <v>26.2265546398454</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.86146289269955</v>
+        <v>23.27268844527934</v>
       </c>
       <c r="C25">
-        <v>7.143850469885632</v>
+        <v>4.561423169918603</v>
       </c>
       <c r="D25">
-        <v>2.153472268337927</v>
+        <v>4.063734655670811</v>
       </c>
       <c r="E25">
-        <v>6.231572028293218</v>
+        <v>10.9636884997408</v>
       </c>
       <c r="F25">
-        <v>42.78195105345316</v>
+        <v>55.85457453530046</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.185674258756125</v>
+        <v>10.52406749867206</v>
       </c>
       <c r="K25">
-        <v>15.69614078222805</v>
+        <v>19.12146703894799</v>
       </c>
       <c r="L25">
-        <v>7.002304131226553</v>
+        <v>11.55422676585052</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.14398068575615</v>
+        <v>26.28410005372534</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>23.1101482218129</v>
+        <v>18.6417327357906</v>
       </c>
       <c r="C2">
-        <v>4.362399951498389</v>
+        <v>6.526677680413159</v>
       </c>
       <c r="D2">
-        <v>4.072610582564339</v>
+        <v>2.1394383778987</v>
       </c>
       <c r="E2">
-        <v>10.98770551718572</v>
+        <v>6.207073003677019</v>
       </c>
       <c r="F2">
-        <v>55.77520609594337</v>
+        <v>41.65390259416525</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.54774182860854</v>
+        <v>6.23305164446582</v>
       </c>
       <c r="K2">
-        <v>19.01385598288839</v>
+        <v>14.77810408946212</v>
       </c>
       <c r="L2">
-        <v>11.57069076593213</v>
+        <v>6.864669939229692</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>26.33251820137312</v>
+        <v>18.29379584521674</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.01054385223803</v>
+        <v>17.79796031180285</v>
       </c>
       <c r="C3">
-        <v>4.225191698887479</v>
+        <v>6.080673555339453</v>
       </c>
       <c r="D3">
-        <v>4.079697481276645</v>
+        <v>2.128689981341646</v>
       </c>
       <c r="E3">
-        <v>11.00629192790191</v>
+        <v>6.195233684659795</v>
       </c>
       <c r="F3">
-        <v>55.74029085385012</v>
+        <v>40.93144148890502</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.56528018060978</v>
+        <v>6.268078262819067</v>
       </c>
       <c r="K3">
-        <v>18.94947017374794</v>
+        <v>14.14623665520967</v>
       </c>
       <c r="L3">
-        <v>11.58520585156443</v>
+        <v>6.777600288610451</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>26.36910687975013</v>
+        <v>18.40575436275638</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.95471465578982</v>
+        <v>17.27298234826949</v>
       </c>
       <c r="C4">
-        <v>4.140185687579641</v>
+        <v>5.792838768071086</v>
       </c>
       <c r="D4">
-        <v>4.084579972642078</v>
+        <v>2.121504986057976</v>
       </c>
       <c r="E4">
-        <v>11.01884644128625</v>
+        <v>6.190250343283439</v>
       </c>
       <c r="F4">
-        <v>55.72818307309119</v>
+        <v>40.50840047909812</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.57678869411716</v>
+        <v>6.29101072497403</v>
       </c>
       <c r="K4">
-        <v>18.91422504216142</v>
+        <v>13.75466379689455</v>
       </c>
       <c r="L4">
-        <v>11.59577601372121</v>
+        <v>6.727200212399211</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>26.39343557132002</v>
+        <v>18.47940475098196</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.93332124749109</v>
+        <v>17.05759719338576</v>
       </c>
       <c r="C5">
-        <v>4.105417302812327</v>
+        <v>5.671986498689673</v>
       </c>
       <c r="D5">
-        <v>4.086703563336675</v>
+        <v>2.118433604274705</v>
       </c>
       <c r="E5">
-        <v>11.02425022335524</v>
+        <v>6.188785219527642</v>
       </c>
       <c r="F5">
-        <v>55.7255980272913</v>
+        <v>40.34115075410484</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.58166498311215</v>
+        <v>6.30071262155842</v>
       </c>
       <c r="K5">
-        <v>18.90095104056503</v>
+        <v>13.594399454656</v>
       </c>
       <c r="L5">
-        <v>11.60050059881678</v>
+        <v>6.707431373358396</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>26.40381832645474</v>
+        <v>18.51061981608543</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.92985135312875</v>
+        <v>17.02175399873831</v>
       </c>
       <c r="C6">
-        <v>4.099638247600146</v>
+        <v>5.651703120187887</v>
       </c>
       <c r="D6">
-        <v>4.08706428451957</v>
+        <v>2.117915051564952</v>
       </c>
       <c r="E6">
-        <v>11.02516490779648</v>
+        <v>6.188575830364266</v>
       </c>
       <c r="F6">
-        <v>55.72531071282231</v>
+        <v>40.3136888130436</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.58248596237753</v>
+        <v>6.302345109945683</v>
       </c>
       <c r="K6">
-        <v>18.89881293580211</v>
+        <v>13.56775240556365</v>
       </c>
       <c r="L6">
-        <v>11.60131031496328</v>
+        <v>6.704195231438775</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>26.40557068202597</v>
+        <v>18.51587476395253</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.95442061871023</v>
+        <v>17.27008306557147</v>
       </c>
       <c r="C7">
-        <v>4.139717219775782</v>
+        <v>5.791223365797947</v>
       </c>
       <c r="D7">
-        <v>4.084608069309725</v>
+        <v>2.121464140089208</v>
       </c>
       <c r="E7">
-        <v>11.0189181530268</v>
+        <v>6.190228306050593</v>
       </c>
       <c r="F7">
-        <v>55.72813869669378</v>
+        <v>40.50612410544326</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.57685370185932</v>
+        <v>6.291140126019373</v>
       </c>
       <c r="K7">
-        <v>18.91404160353064</v>
+        <v>13.75250493140341</v>
       </c>
       <c r="L7">
-        <v>11.59583804174452</v>
+        <v>6.726930487706707</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>26.39357369926649</v>
+        <v>18.47982090196341</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.07470985126993</v>
+        <v>18.35238793138832</v>
       </c>
       <c r="C8">
-        <v>4.315284923833465</v>
+        <v>6.375772878679006</v>
       </c>
       <c r="D8">
-        <v>4.074944146152874</v>
+        <v>2.135856095002712</v>
       </c>
       <c r="E8">
-        <v>10.99387728485627</v>
+        <v>6.202510768916706</v>
       </c>
       <c r="F8">
-        <v>55.76123281552788</v>
+        <v>41.40051840601512</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.5536357419673</v>
+        <v>6.244831689468939</v>
       </c>
       <c r="K8">
-        <v>18.99077240310485</v>
+        <v>14.56110177438963</v>
       </c>
       <c r="L8">
-        <v>11.57535166643908</v>
+        <v>6.834013168810025</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>26.344747367127</v>
+        <v>18.33136040824619</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.35201902198728</v>
+        <v>20.40987430059011</v>
       </c>
       <c r="C9">
-        <v>4.650974767891729</v>
+        <v>7.413121107897798</v>
       </c>
       <c r="D9">
-        <v>4.06019035580608</v>
+        <v>2.159267173390561</v>
       </c>
       <c r="E9">
-        <v>10.95381647650091</v>
+        <v>6.245156765307003</v>
       </c>
       <c r="F9">
-        <v>55.89999844643978</v>
+        <v>43.318588975327</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.51395716349031</v>
+        <v>6.165429281413159</v>
       </c>
       <c r="K9">
-        <v>19.17475127011004</v>
+        <v>16.11043333306281</v>
       </c>
       <c r="L9">
-        <v>11.54831855604587</v>
+        <v>7.06827706353102</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>26.26377667652619</v>
+        <v>18.08076879801483</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.57975211656561</v>
+        <v>21.87145644241456</v>
       </c>
       <c r="C10">
-        <v>4.889233984693877</v>
+        <v>8.111959826539724</v>
       </c>
       <c r="D10">
-        <v>4.051886533502115</v>
+        <v>2.173308588622427</v>
       </c>
       <c r="E10">
-        <v>10.92987039635461</v>
+        <v>6.288402453627451</v>
       </c>
       <c r="F10">
-        <v>56.04670144949119</v>
+        <v>44.82974397315381</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.4883467107245</v>
+        <v>6.114195942702372</v>
       </c>
       <c r="K10">
-        <v>19.3295833339406</v>
+        <v>17.21848023986443</v>
       </c>
       <c r="L10">
-        <v>11.53644792998574</v>
+        <v>7.255190293601781</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>26.21328973538322</v>
+        <v>17.92386138420665</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.68826327015273</v>
+        <v>22.52414693339068</v>
       </c>
       <c r="C11">
-        <v>4.995235995653541</v>
+        <v>8.41690767920352</v>
       </c>
       <c r="D11">
-        <v>4.048654557087604</v>
+        <v>2.178962237512551</v>
       </c>
       <c r="E11">
-        <v>10.92016221349583</v>
+        <v>6.310798928098809</v>
       </c>
       <c r="F11">
-        <v>56.12307334761738</v>
+        <v>45.53993818429225</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.47745935491509</v>
+        <v>6.092470370255435</v>
       </c>
       <c r="K11">
-        <v>19.4041031504389</v>
+        <v>17.71491304902891</v>
       </c>
       <c r="L11">
-        <v>11.53277721150347</v>
+        <v>7.343448326441951</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>26.19227545166539</v>
+        <v>17.8590249192621</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.73003279284234</v>
+        <v>22.76949106779255</v>
       </c>
       <c r="C12">
-        <v>5.034992114536606</v>
+        <v>8.530591083724506</v>
       </c>
       <c r="D12">
-        <v>4.047508705461292</v>
+        <v>2.180993592923494</v>
       </c>
       <c r="E12">
-        <v>10.91665588911216</v>
+        <v>6.319683322179421</v>
       </c>
       <c r="F12">
-        <v>56.15336953863673</v>
+        <v>45.81221097188974</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.47344588919437</v>
+        <v>6.084474665498679</v>
       </c>
       <c r="K12">
-        <v>19.43289198901616</v>
+        <v>17.90175317671099</v>
       </c>
       <c r="L12">
-        <v>11.53163527125232</v>
+        <v>7.377336224701845</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>26.18459859264223</v>
+        <v>17.83547498098602</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.72100725126482</v>
+        <v>22.71673314819884</v>
       </c>
       <c r="C13">
-        <v>5.026447645314856</v>
+        <v>8.506185925241642</v>
       </c>
       <c r="D13">
-        <v>4.047752021425639</v>
+        <v>2.180561041202085</v>
       </c>
       <c r="E13">
-        <v>10.91740348731069</v>
+        <v>6.317751776973543</v>
       </c>
       <c r="F13">
-        <v>56.14678369210614</v>
+        <v>45.75342243104973</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.47430540385768</v>
+        <v>6.086186327521697</v>
       </c>
       <c r="K13">
-        <v>19.42666674826164</v>
+        <v>17.86156538550325</v>
       </c>
       <c r="L13">
-        <v>11.53187018518095</v>
+        <v>7.370017057507564</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>26.18623945264617</v>
+        <v>17.84050124916046</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.69168623614494</v>
+        <v>22.54436814961563</v>
       </c>
       <c r="C14">
-        <v>4.998514686352348</v>
+        <v>8.426296007946418</v>
       </c>
       <c r="D14">
-        <v>4.048558725769997</v>
+        <v>2.179131577211024</v>
       </c>
       <c r="E14">
-        <v>10.91987034255486</v>
+        <v>6.311521699720707</v>
       </c>
       <c r="F14">
-        <v>56.12553832096074</v>
+        <v>45.56227088539805</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.47712697547649</v>
+        <v>6.091807898578533</v>
       </c>
       <c r="K14">
-        <v>19.40646031093001</v>
+        <v>17.73030770099267</v>
       </c>
       <c r="L14">
-        <v>11.53267829510309</v>
+        <v>7.346226936054119</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>26.19163824413332</v>
+        <v>17.85706698709696</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.67381380443893</v>
+        <v>22.43855197778102</v>
       </c>
       <c r="C15">
-        <v>4.981353696930713</v>
+        <v>8.3771297089142</v>
       </c>
       <c r="D15">
-        <v>4.049063004676991</v>
+        <v>2.178241601557512</v>
       </c>
       <c r="E15">
-        <v>10.92140348214262</v>
+        <v>6.307758482043678</v>
       </c>
       <c r="F15">
-        <v>56.11270377567228</v>
+        <v>45.44562201793636</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.47886949776773</v>
+        <v>6.09528152211721</v>
       </c>
       <c r="K15">
-        <v>19.3941569463227</v>
+        <v>17.64975802135563</v>
       </c>
       <c r="L15">
-        <v>11.53320557455769</v>
+        <v>7.331715645852464</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>26.19498172846403</v>
+        <v>17.86734644960857</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.57275718296534</v>
+        <v>21.82855003222452</v>
       </c>
       <c r="C16">
-        <v>4.882254870139004</v>
+        <v>8.091775823851069</v>
       </c>
       <c r="D16">
-        <v>4.052108692134216</v>
+        <v>2.172923998066176</v>
       </c>
       <c r="E16">
-        <v>10.93052865615662</v>
+        <v>6.286994581526908</v>
       </c>
       <c r="F16">
-        <v>56.04190345508962</v>
+        <v>44.78379414263772</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.48907354582306</v>
+        <v>6.11564789807902</v>
       </c>
       <c r="K16">
-        <v>19.32479401296277</v>
+        <v>17.18587865600662</v>
       </c>
       <c r="L16">
-        <v>11.53672256912974</v>
+        <v>7.249487549462811</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>26.21470235956128</v>
+        <v>17.9282353322815</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>23.51200138025469</v>
+        <v>21.45115429819127</v>
       </c>
       <c r="C17">
-        <v>4.820819368676419</v>
+        <v>7.91344916540665</v>
       </c>
       <c r="D17">
-        <v>4.054116541594304</v>
+        <v>2.169470998802694</v>
       </c>
       <c r="E17">
-        <v>10.93642984729137</v>
+        <v>6.274962308710331</v>
       </c>
       <c r="F17">
-        <v>56.00093116000879</v>
+        <v>44.38365308995895</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.49552854572491</v>
+        <v>6.128549557196934</v>
       </c>
       <c r="K17">
-        <v>19.28327628831538</v>
+        <v>16.89930462606227</v>
       </c>
       <c r="L17">
-        <v>11.53932264791674</v>
+        <v>7.199871434108676</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>26.22730042436344</v>
+        <v>17.96730571795037</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.47752055678899</v>
+        <v>21.23294004792556</v>
       </c>
       <c r="C18">
-        <v>4.785261180453179</v>
+        <v>7.809656236114801</v>
       </c>
       <c r="D18">
-        <v>4.0553227710986</v>
+        <v>2.167416092430698</v>
       </c>
       <c r="E18">
-        <v>10.93993562243807</v>
+        <v>6.268297305944508</v>
       </c>
       <c r="F18">
-        <v>55.97827263111882</v>
+        <v>44.155639994591</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.49931312722722</v>
+        <v>6.136118768700733</v>
       </c>
       <c r="K18">
-        <v>19.25978210564942</v>
+        <v>16.73375847464094</v>
       </c>
       <c r="L18">
-        <v>11.54098095310744</v>
+        <v>7.171637386750253</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>26.23473027253592</v>
+        <v>17.99038959765066</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.46592651885978</v>
+        <v>21.15886213987043</v>
       </c>
       <c r="C19">
-        <v>4.773184987425664</v>
+        <v>7.774301473067475</v>
       </c>
       <c r="D19">
-        <v>4.05574001452256</v>
+        <v>2.166708636928798</v>
       </c>
       <c r="E19">
-        <v>10.94114179278251</v>
+        <v>6.26608421337921</v>
       </c>
       <c r="F19">
-        <v>55.97075701134172</v>
+        <v>44.07880418518182</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.500606870899</v>
+        <v>6.138706968301598</v>
       </c>
       <c r="K19">
-        <v>19.25189415068563</v>
+        <v>16.67758643611641</v>
       </c>
       <c r="L19">
-        <v>11.54157040602644</v>
+        <v>7.162129977651068</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>26.23727745404478</v>
+        <v>17.99830868923987</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>23.51842108379953</v>
+        <v>21.4914479240684</v>
       </c>
       <c r="C20">
-        <v>4.827382587399764</v>
+        <v>7.932558555127941</v>
       </c>
       <c r="D20">
-        <v>4.053897489183736</v>
+        <v>2.169845729511359</v>
       </c>
       <c r="E20">
-        <v>10.93579011198771</v>
+        <v>6.276216624494444</v>
       </c>
       <c r="F20">
-        <v>56.0051988597822</v>
+        <v>44.42602717498782</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.49483396791938</v>
+        <v>6.127160755151436</v>
       </c>
       <c r="K20">
-        <v>19.28765612658356</v>
+        <v>16.92988553243792</v>
       </c>
       <c r="L20">
-        <v>11.53902901907159</v>
+        <v>7.205121701041525</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>26.22594031880386</v>
+        <v>17.96308288429622</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.70028033803914</v>
+        <v>22.5950455074172</v>
       </c>
       <c r="C21">
-        <v>5.006730021582906</v>
+        <v>8.449809706750655</v>
       </c>
       <c r="D21">
-        <v>4.048319662808487</v>
+        <v>2.179554451031146</v>
       </c>
       <c r="E21">
-        <v>10.91914115849836</v>
+        <v>6.313340581479212</v>
       </c>
       <c r="F21">
-        <v>56.13174134690456</v>
+        <v>45.61832551381728</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.47629524701406</v>
+        <v>6.090150395188564</v>
       </c>
       <c r="K21">
-        <v>19.41238011335625</v>
+        <v>17.76889269127843</v>
       </c>
       <c r="L21">
-        <v>11.53243420582686</v>
+        <v>7.353201984524113</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>26.19004486726402</v>
+        <v>17.85217350151392</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.82307808317387</v>
+        <v>23.30572618712369</v>
       </c>
       <c r="C22">
-        <v>5.121686163110411</v>
+        <v>8.777445291343087</v>
       </c>
       <c r="D22">
-        <v>4.045128840527874</v>
+        <v>2.185259188063717</v>
       </c>
       <c r="E22">
-        <v>10.90925051102115</v>
+        <v>6.339960153734725</v>
       </c>
       <c r="F22">
-        <v>56.22245801346156</v>
+        <v>46.41706389614163</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.46481626518694</v>
+        <v>6.067312397207996</v>
       </c>
       <c r="K22">
-        <v>19.49720679468923</v>
+        <v>18.31053698447601</v>
       </c>
       <c r="L22">
-        <v>11.52956979682734</v>
+        <v>7.452702677567428</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>26.16822181542914</v>
+        <v>17.78556349040873</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.75718744640107</v>
+        <v>22.92740156612244</v>
       </c>
       <c r="C23">
-        <v>5.060551194476993</v>
+        <v>8.603508479049966</v>
       </c>
       <c r="D23">
-        <v>4.046790383085048</v>
+        <v>2.182274401783529</v>
       </c>
       <c r="E23">
-        <v>10.91443886412433</v>
+        <v>6.325533076848018</v>
       </c>
       <c r="F23">
-        <v>56.1733111255877</v>
+        <v>45.98894996254621</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.47088463781852</v>
+        <v>6.079376449198226</v>
       </c>
       <c r="K23">
-        <v>19.45163622647957</v>
+        <v>18.02207322613976</v>
       </c>
       <c r="L23">
-        <v>11.53096651889927</v>
+        <v>7.399347015484599</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>26.17971941950336</v>
+        <v>17.8205546038581</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23.51551733670428</v>
+        <v>21.47323504666603</v>
       </c>
       <c r="C24">
-        <v>4.824416094630019</v>
+        <v>7.923923162710397</v>
       </c>
       <c r="D24">
-        <v>4.0539963611273</v>
+        <v>2.169676530650832</v>
       </c>
       <c r="E24">
-        <v>10.93607898399486</v>
+        <v>6.275648762683947</v>
       </c>
       <c r="F24">
-        <v>56.00326663791232</v>
+        <v>44.40686352232369</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.49514775752357</v>
+        <v>6.127788159792737</v>
       </c>
       <c r="K24">
-        <v>19.28567483256523</v>
+        <v>16.91606236390727</v>
       </c>
       <c r="L24">
-        <v>11.53916125939789</v>
+        <v>7.202747149333426</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>26.2265546398454</v>
+        <v>17.96499009520781</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.27268844527934</v>
+        <v>19.86146289269956</v>
       </c>
       <c r="C25">
-        <v>4.561423169918603</v>
+        <v>7.143850469885618</v>
       </c>
       <c r="D25">
-        <v>4.063734655670811</v>
+        <v>2.153472268337986</v>
       </c>
       <c r="E25">
-        <v>10.9636884997408</v>
+        <v>6.231572028293213</v>
       </c>
       <c r="F25">
-        <v>55.85457453530046</v>
+        <v>42.78195105345313</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.52406749867206</v>
+        <v>6.185674258756095</v>
       </c>
       <c r="K25">
-        <v>19.12146703894799</v>
+        <v>15.69614078222804</v>
       </c>
       <c r="L25">
-        <v>11.55422676585052</v>
+        <v>7.002304131226545</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>26.28410005372534</v>
+        <v>18.14398068575616</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.6417327357906</v>
+        <v>20.46420358719338</v>
       </c>
       <c r="C2">
-        <v>6.526677680413159</v>
+        <v>19.02991299810446</v>
       </c>
       <c r="D2">
-        <v>2.1394383778987</v>
+        <v>2.452891142645605</v>
       </c>
       <c r="E2">
-        <v>6.207073003677019</v>
+        <v>6.890451075949308</v>
       </c>
       <c r="F2">
-        <v>41.65390259416525</v>
+        <v>43.53984974529523</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.556996087476889</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.176625332593334</v>
       </c>
       <c r="J2">
-        <v>6.23305164446582</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K2">
-        <v>14.77810408946212</v>
+        <v>26.86085555530876</v>
       </c>
       <c r="L2">
-        <v>6.864669939229692</v>
+        <v>6.308035702170836</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>18.29379584521674</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>15.55096863468754</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.79796031180285</v>
+        <v>19.07615882270964</v>
       </c>
       <c r="C3">
-        <v>6.080673555339453</v>
+        <v>17.7160877814453</v>
       </c>
       <c r="D3">
-        <v>2.128689981341646</v>
+        <v>2.380942421422019</v>
       </c>
       <c r="E3">
-        <v>6.195233684659795</v>
+        <v>6.611389600236733</v>
       </c>
       <c r="F3">
-        <v>40.93144148890502</v>
+        <v>41.66017310276229</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>2.901193604139877</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.459438808860867</v>
       </c>
       <c r="J3">
-        <v>6.268078262819067</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>14.14623665520967</v>
+        <v>25.9924211143481</v>
       </c>
       <c r="L3">
-        <v>6.777600288610451</v>
+        <v>6.134226017762932</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>18.40575436275638</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>14.72468780427067</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>17.27298234826949</v>
+        <v>18.1733631009931</v>
       </c>
       <c r="C4">
-        <v>5.792838768071086</v>
+        <v>16.89105715666203</v>
       </c>
       <c r="D4">
-        <v>2.121504986057976</v>
+        <v>2.337015460082394</v>
       </c>
       <c r="E4">
-        <v>6.190250343283439</v>
+        <v>6.435303255011638</v>
       </c>
       <c r="F4">
-        <v>40.50840047909812</v>
+        <v>40.46501387897926</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>3.118858163822374</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.638722660395694</v>
       </c>
       <c r="J4">
-        <v>6.29101072497403</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>13.75466379689455</v>
+        <v>25.44228347281738</v>
       </c>
       <c r="L4">
-        <v>6.727200212399211</v>
+        <v>6.024066521251926</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>18.47940475098196</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>14.19727225145766</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.05759719338576</v>
+        <v>17.79166354430916</v>
       </c>
       <c r="C5">
-        <v>5.671986498689673</v>
+        <v>16.55915746675162</v>
       </c>
       <c r="D5">
-        <v>2.118433604274705</v>
+        <v>2.320654717647834</v>
       </c>
       <c r="E5">
-        <v>6.188785219527642</v>
+        <v>6.363514673636309</v>
       </c>
       <c r="F5">
-        <v>40.34115075410484</v>
+        <v>39.93272130625588</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>3.209777385163216</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.716125711917491</v>
       </c>
       <c r="J5">
-        <v>6.30071262155842</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>13.594399454656</v>
+        <v>25.18657016337139</v>
       </c>
       <c r="L5">
-        <v>6.707431373358396</v>
+        <v>5.97712533176484</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>18.51061981608543</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>13.98043836432465</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.02175399873831</v>
+        <v>17.72627839741451</v>
       </c>
       <c r="C6">
-        <v>5.651703120187887</v>
+        <v>16.51439729734861</v>
       </c>
       <c r="D6">
-        <v>2.117915051564952</v>
+        <v>2.319813636712478</v>
       </c>
       <c r="E6">
-        <v>6.188575830364266</v>
+        <v>6.352959569046765</v>
       </c>
       <c r="F6">
-        <v>40.3136888130436</v>
+        <v>39.80044308341908</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>3.225681739449259</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.732755554189596</v>
       </c>
       <c r="J6">
-        <v>6.302345109945683</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>13.56775240556365</v>
+        <v>25.11027657532823</v>
       </c>
       <c r="L6">
-        <v>6.704195231438775</v>
+        <v>5.967835346662255</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>18.51587476395253</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>13.94778605867597</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>17.27008306557147</v>
+        <v>18.16496847966765</v>
       </c>
       <c r="C7">
-        <v>5.791223365797947</v>
+        <v>16.91558215141403</v>
       </c>
       <c r="D7">
-        <v>2.121464140089208</v>
+        <v>2.341722852155843</v>
       </c>
       <c r="E7">
-        <v>6.190228306050593</v>
+        <v>6.43820672697596</v>
       </c>
       <c r="F7">
-        <v>40.50612410544326</v>
+        <v>40.34131565594733</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>3.121993541795495</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.649609837357278</v>
       </c>
       <c r="J7">
-        <v>6.291140126019373</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>13.75250493140341</v>
+        <v>25.34803948756979</v>
       </c>
       <c r="L7">
-        <v>6.726930487706707</v>
+        <v>6.019534777443105</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>18.47982090196341</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>14.20410691987526</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.35238793138832</v>
+        <v>19.9919063741015</v>
       </c>
       <c r="C8">
-        <v>6.375772878679006</v>
+        <v>18.61960356352185</v>
       </c>
       <c r="D8">
-        <v>2.135856095002712</v>
+        <v>2.433982965979684</v>
       </c>
       <c r="E8">
-        <v>6.202510768916706</v>
+        <v>6.800061865596232</v>
       </c>
       <c r="F8">
-        <v>41.40051840601512</v>
+        <v>42.75410374579246</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.676863621911024</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.285891830276533</v>
       </c>
       <c r="J8">
-        <v>6.244831689468939</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>14.56110177438963</v>
+        <v>26.44934111162441</v>
       </c>
       <c r="L8">
-        <v>6.834013168810025</v>
+        <v>6.243823552089895</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>18.33136040824619</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>15.2823105032375</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.40987430059011</v>
+        <v>23.18324715135547</v>
       </c>
       <c r="C9">
-        <v>7.413121107897798</v>
+        <v>21.64692935953056</v>
       </c>
       <c r="D9">
-        <v>2.159267173390561</v>
+        <v>2.610011882953263</v>
       </c>
       <c r="E9">
-        <v>6.245156765307003</v>
+        <v>7.466438458053543</v>
       </c>
       <c r="F9">
-        <v>43.318588975327</v>
+        <v>47.3369230393491</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>1.848489093523329</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>2.599356068418817</v>
       </c>
       <c r="J9">
-        <v>6.165429281413159</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>16.11043333306281</v>
+        <v>28.62137479993341</v>
       </c>
       <c r="L9">
-        <v>7.06827706353102</v>
+        <v>6.66336334053486</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>18.08076879801483</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>17.21627799574345</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.87145644241456</v>
+        <v>25.3097330012105</v>
       </c>
       <c r="C10">
-        <v>8.111959826539724</v>
+        <v>23.63039640367698</v>
       </c>
       <c r="D10">
-        <v>2.173308588622427</v>
+        <v>2.756621435797698</v>
       </c>
       <c r="E10">
-        <v>6.288402453627451</v>
+        <v>7.832956952017822</v>
       </c>
       <c r="F10">
-        <v>44.82974397315381</v>
+        <v>49.91182767296741</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>1.831913884051038</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.820598100403178</v>
       </c>
       <c r="J10">
-        <v>6.114195942702372</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>17.21848023986443</v>
+        <v>29.75470400563477</v>
       </c>
       <c r="L10">
-        <v>7.255190293601781</v>
+        <v>6.878921866172864</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>17.92386138420665</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>18.44244638851517</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>22.52414693339068</v>
+        <v>26.38736489304526</v>
       </c>
       <c r="C11">
-        <v>8.41690767920352</v>
+        <v>23.9633514640381</v>
       </c>
       <c r="D11">
-        <v>2.178962237512551</v>
+        <v>2.929163304092135</v>
       </c>
       <c r="E11">
-        <v>6.310798928098809</v>
+        <v>7.252808254222147</v>
       </c>
       <c r="F11">
-        <v>45.53993818429225</v>
+        <v>46.45420241407703</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>2.794330272746039</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.940771208548846</v>
       </c>
       <c r="J11">
-        <v>6.092470370255435</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>17.71491304902891</v>
+        <v>27.32482154353113</v>
       </c>
       <c r="L11">
-        <v>7.343448326441951</v>
+        <v>6.413672858269409</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>17.8590249192621</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>18.18623371023423</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>22.76949106779255</v>
+        <v>26.87328858102025</v>
       </c>
       <c r="C12">
-        <v>8.530591083724506</v>
+        <v>23.80266530958296</v>
       </c>
       <c r="D12">
-        <v>2.180993592923494</v>
+        <v>3.030568376461641</v>
       </c>
       <c r="E12">
-        <v>6.319683322179421</v>
+        <v>6.91047482555153</v>
       </c>
       <c r="F12">
-        <v>45.81221097188974</v>
+        <v>43.11977015358986</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.085009209221406</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.95017244165807</v>
       </c>
       <c r="J12">
-        <v>6.084474665498679</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>17.90175317671099</v>
+        <v>25.1624253962849</v>
       </c>
       <c r="L12">
-        <v>7.377336224701845</v>
+        <v>6.122793513150829</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>17.83547498098602</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>17.69339578337724</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>22.71673314819884</v>
+        <v>26.94615161150348</v>
       </c>
       <c r="C13">
-        <v>8.506185925241642</v>
+        <v>23.27913862823549</v>
       </c>
       <c r="D13">
-        <v>2.180561041202085</v>
+        <v>3.088580986119628</v>
       </c>
       <c r="E13">
-        <v>6.317751776973543</v>
+        <v>6.755844373424476</v>
       </c>
       <c r="F13">
-        <v>45.75342243104973</v>
+        <v>39.45201491767594</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.462843544067629</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.878180881137909</v>
       </c>
       <c r="J13">
-        <v>6.086186327521697</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>17.86156538550325</v>
+        <v>22.92471623551252</v>
       </c>
       <c r="L13">
-        <v>7.370017057507564</v>
+        <v>5.957225297559853</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>17.84050124916046</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.98733892049653</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>22.54436814961563</v>
+        <v>26.81189993578989</v>
       </c>
       <c r="C14">
-        <v>8.426296007946418</v>
+        <v>22.74796706934607</v>
       </c>
       <c r="D14">
-        <v>2.179131577211024</v>
+        <v>3.108843161274052</v>
       </c>
       <c r="E14">
-        <v>6.311521699720707</v>
+        <v>6.773645617144161</v>
       </c>
       <c r="F14">
-        <v>45.56227088539805</v>
+        <v>36.67751854979203</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.503124442234433</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.792822510490097</v>
       </c>
       <c r="J14">
-        <v>6.091807898578533</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>17.73030770099267</v>
+        <v>21.30434998008771</v>
       </c>
       <c r="L14">
-        <v>7.346226936054119</v>
+        <v>5.924783457440963</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>17.85706698709696</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>16.38998389918833</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>22.43855197778102</v>
+        <v>26.68906551981345</v>
       </c>
       <c r="C15">
-        <v>8.3771297089142</v>
+        <v>22.54744286333606</v>
       </c>
       <c r="D15">
-        <v>2.178241601557512</v>
+        <v>3.105825241228693</v>
       </c>
       <c r="E15">
-        <v>6.307758482043678</v>
+        <v>6.78295460976114</v>
       </c>
       <c r="F15">
-        <v>45.44562201793636</v>
+        <v>35.89164339076277</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.74622627154405</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.755251528689343</v>
       </c>
       <c r="J15">
-        <v>6.09528152211721</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>17.64975802135563</v>
+        <v>20.86547071418076</v>
       </c>
       <c r="L15">
-        <v>7.331715645852464</v>
+        <v>5.922644778243717</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>17.86734644960857</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>16.20141828201045</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.82855003222452</v>
+        <v>25.81722957143201</v>
       </c>
       <c r="C16">
-        <v>8.091775823851069</v>
+        <v>21.8121985960761</v>
       </c>
       <c r="D16">
-        <v>2.172923998066176</v>
+        <v>3.031735451865416</v>
       </c>
       <c r="E16">
-        <v>6.286994581526908</v>
+        <v>6.636165646463941</v>
       </c>
       <c r="F16">
-        <v>44.78379414263772</v>
+        <v>35.28870617680208</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.565471158797265</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.57849347833753</v>
       </c>
       <c r="J16">
-        <v>6.11564789807902</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>17.18587865600662</v>
+        <v>20.71514648384248</v>
       </c>
       <c r="L16">
-        <v>7.249487549462811</v>
+        <v>5.853034953626742</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>17.9282353322815</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>15.79753185515321</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.45115429819127</v>
+        <v>25.20662091294771</v>
       </c>
       <c r="C17">
-        <v>7.91344916540665</v>
+        <v>21.5354870566187</v>
       </c>
       <c r="D17">
-        <v>2.169470998802694</v>
+        <v>2.965255013052996</v>
       </c>
       <c r="E17">
-        <v>6.274962308710331</v>
+        <v>6.487247604149447</v>
       </c>
       <c r="F17">
-        <v>44.38365308995895</v>
+        <v>36.34350388912993</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.849613570816162</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.529261783320374</v>
       </c>
       <c r="J17">
-        <v>6.128549557196934</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>16.89930462606227</v>
+        <v>21.46624528217162</v>
       </c>
       <c r="L17">
-        <v>7.199871434108676</v>
+        <v>5.800282421412137</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>17.96730571795037</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.8153416971502</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.23294004792556</v>
+        <v>24.76689560189736</v>
       </c>
       <c r="C18">
-        <v>7.809656236114801</v>
+        <v>21.61274148291353</v>
       </c>
       <c r="D18">
-        <v>2.167416092430698</v>
+        <v>2.89188546625109</v>
       </c>
       <c r="E18">
-        <v>6.268297305944508</v>
+        <v>6.46128803510259</v>
       </c>
       <c r="F18">
-        <v>44.155639994591</v>
+        <v>39.03892151392424</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.611942361771622</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2.544441124429861</v>
       </c>
       <c r="J18">
-        <v>6.136118768700733</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>16.73375847464094</v>
+        <v>23.16956629536186</v>
       </c>
       <c r="L18">
-        <v>7.171637386750253</v>
+        <v>5.845816107934905</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>17.99038959765066</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.19248140066648</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.15886213987043</v>
+        <v>24.50169681754347</v>
       </c>
       <c r="C19">
-        <v>7.774301473067475</v>
+        <v>22.00886389678684</v>
       </c>
       <c r="D19">
-        <v>2.166708636928798</v>
+        <v>2.815971746788877</v>
       </c>
       <c r="E19">
-        <v>6.26608421337921</v>
+        <v>6.742153300275487</v>
       </c>
       <c r="F19">
-        <v>44.07880418518182</v>
+        <v>42.66272803573431</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.130176683921749</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2.510305318244723</v>
       </c>
       <c r="J19">
-        <v>6.138706968301598</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>16.67758643611641</v>
+        <v>25.40311382835987</v>
       </c>
       <c r="L19">
-        <v>7.162129977651068</v>
+        <v>6.089267746096439</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>17.99830868923987</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>16.83571616404702</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.4914479240684</v>
+        <v>24.75944633068439</v>
       </c>
       <c r="C20">
-        <v>7.932558555127941</v>
+        <v>23.18478840165477</v>
       </c>
       <c r="D20">
-        <v>2.169845729511359</v>
+        <v>2.730699719006012</v>
       </c>
       <c r="E20">
-        <v>6.276216624494444</v>
+        <v>7.742261185754062</v>
       </c>
       <c r="F20">
-        <v>44.42602717498782</v>
+        <v>48.92213532368015</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>1.681009898070793</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.709791429112377</v>
       </c>
       <c r="J20">
-        <v>6.127160755151436</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>16.92988553243792</v>
+        <v>29.20127047546233</v>
       </c>
       <c r="L20">
-        <v>7.205121701041525</v>
+        <v>6.808854128025753</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>17.96308288429622</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>18.14672323683885</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.5950455074172</v>
+        <v>26.29064555146945</v>
       </c>
       <c r="C21">
-        <v>8.449809706750655</v>
+        <v>24.73393525528984</v>
       </c>
       <c r="D21">
-        <v>2.179554451031146</v>
+        <v>2.822555160999254</v>
       </c>
       <c r="E21">
-        <v>6.313340581479212</v>
+        <v>8.176929664601593</v>
       </c>
       <c r="F21">
-        <v>45.61832551381728</v>
+        <v>51.70584182096295</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>2.124882440867119</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>3.069992267361799</v>
       </c>
       <c r="J21">
-        <v>6.090150395188564</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>17.76889269127843</v>
+        <v>30.61006115187447</v>
       </c>
       <c r="L21">
-        <v>7.353201984524113</v>
+        <v>7.088863599020236</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>17.85217350151392</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>19.19185396810354</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.30572618712369</v>
+        <v>27.26373686328268</v>
       </c>
       <c r="C22">
-        <v>8.777445291343087</v>
+        <v>25.65591067370465</v>
       </c>
       <c r="D22">
-        <v>2.185259188063717</v>
+        <v>2.884906858838764</v>
       </c>
       <c r="E22">
-        <v>6.339960153734725</v>
+        <v>8.400211163597179</v>
       </c>
       <c r="F22">
-        <v>46.41706389614163</v>
+        <v>53.33122990309725</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>2.404942667345985</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3.296101979094956</v>
       </c>
       <c r="J22">
-        <v>6.067312397207996</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>18.31053698447601</v>
+        <v>31.43974722451974</v>
       </c>
       <c r="L22">
-        <v>7.452702677567428</v>
+        <v>7.235054668862566</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>17.78556349040873</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>19.7981328546235</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.92740156612244</v>
+        <v>26.75128441034345</v>
       </c>
       <c r="C23">
-        <v>8.603508479049966</v>
+        <v>25.14331085302351</v>
       </c>
       <c r="D23">
-        <v>2.182274401783529</v>
+        <v>2.846989228174875</v>
       </c>
       <c r="E23">
-        <v>6.325533076848018</v>
+        <v>8.277706793082208</v>
       </c>
       <c r="F23">
-        <v>45.98894996254621</v>
+        <v>52.57671405695024</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>2.257775396291738</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>3.172885725447115</v>
       </c>
       <c r="J23">
-        <v>6.079376449198226</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>18.02207322613976</v>
+        <v>31.08825466864895</v>
       </c>
       <c r="L23">
-        <v>7.399347015484599</v>
+        <v>7.161265927273829</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>17.8205546038581</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>19.46791093030072</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.47323504666603</v>
+        <v>24.72327509950896</v>
       </c>
       <c r="C24">
-        <v>7.923923162710397</v>
+        <v>23.17328719323387</v>
       </c>
       <c r="D24">
-        <v>2.169676530650832</v>
+        <v>2.712261782858078</v>
       </c>
       <c r="E24">
-        <v>6.275648762683947</v>
+        <v>7.812994238291286</v>
       </c>
       <c r="F24">
-        <v>44.40686352232369</v>
+        <v>49.46617721185304</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>1.690622622031464</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.706465682276913</v>
       </c>
       <c r="J24">
-        <v>6.127788159792737</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>16.91606236390727</v>
+        <v>29.58307571495894</v>
       </c>
       <c r="L24">
-        <v>7.202747149333426</v>
+        <v>6.870556431395136</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>17.96499009520781</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>18.19021076891629</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.86146289269956</v>
+        <v>22.35648517787717</v>
       </c>
       <c r="C25">
-        <v>7.143850469885618</v>
+        <v>20.90297979920472</v>
       </c>
       <c r="D25">
-        <v>2.153472268337986</v>
+        <v>2.569597429154267</v>
       </c>
       <c r="E25">
-        <v>6.231572028293213</v>
+        <v>7.296150961844027</v>
       </c>
       <c r="F25">
-        <v>42.78195105345313</v>
+        <v>45.94978184156452</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.071088203353129</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>2.800154837318563</v>
       </c>
       <c r="J25">
-        <v>6.185674258756095</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>15.69614078222804</v>
+        <v>27.90029288340581</v>
       </c>
       <c r="L25">
-        <v>7.002304131226545</v>
+        <v>6.546166406621583</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>18.14398068575616</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>16.72622482938077</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_52/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.46420358719338</v>
+        <v>20.42773273420424</v>
       </c>
       <c r="C2">
-        <v>19.02991299810446</v>
+        <v>20.38280543115124</v>
       </c>
       <c r="D2">
-        <v>2.452891142645605</v>
+        <v>3.180776115387071</v>
       </c>
       <c r="E2">
-        <v>6.890451075949308</v>
+        <v>7.352627935172356</v>
       </c>
       <c r="F2">
-        <v>43.53984974529523</v>
+        <v>37.63712535589199</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.556996087476889</v>
+        <v>2.447670971907804</v>
       </c>
       <c r="I2">
-        <v>3.176625332593334</v>
+        <v>2.980572988861212</v>
       </c>
       <c r="J2">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K2">
-        <v>26.86085555530876</v>
+        <v>22.05870676993843</v>
       </c>
       <c r="L2">
-        <v>6.308035702170836</v>
+        <v>17.79082618063824</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>15.09440843737108</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>6.218262387844615</v>
       </c>
       <c r="O2">
-        <v>15.55096863468754</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>16.03555095226301</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.07615882270964</v>
+        <v>19.06261871877523</v>
       </c>
       <c r="C3">
-        <v>17.7160877814453</v>
+        <v>18.99797340900345</v>
       </c>
       <c r="D3">
-        <v>2.380942421422019</v>
+        <v>3.070257787230473</v>
       </c>
       <c r="E3">
-        <v>6.611389600236733</v>
+        <v>7.073389303538205</v>
       </c>
       <c r="F3">
-        <v>41.66017310276229</v>
+        <v>36.34583134025247</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2.901193604139877</v>
+        <v>2.76493047587746</v>
       </c>
       <c r="I3">
-        <v>3.459438808860867</v>
+        <v>3.224482929265462</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>25.9924211143481</v>
+        <v>21.67319430196824</v>
       </c>
       <c r="L3">
-        <v>6.134226017762932</v>
+        <v>17.64043153650624</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>14.65701634958029</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.07617750260978</v>
       </c>
       <c r="O3">
-        <v>14.72468780427067</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>15.16042576181962</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.1733631009931</v>
+        <v>18.1739094070899</v>
       </c>
       <c r="C4">
-        <v>16.89105715666203</v>
+        <v>18.10751369228263</v>
       </c>
       <c r="D4">
-        <v>2.337015460082394</v>
+        <v>3.002659797387131</v>
       </c>
       <c r="E4">
-        <v>6.435303255011638</v>
+        <v>6.897070736615827</v>
       </c>
       <c r="F4">
-        <v>40.46501387897926</v>
+        <v>35.52936794060265</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3.118858163822374</v>
+        <v>2.965836914239993</v>
       </c>
       <c r="I4">
-        <v>3.638722660395694</v>
+        <v>3.379612020905896</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>25.44228347281738</v>
+        <v>21.42979428897137</v>
       </c>
       <c r="L4">
-        <v>6.024066521251926</v>
+        <v>17.53688221772384</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>14.40006825475198</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.986046136975701</v>
       </c>
       <c r="O4">
-        <v>14.19727225145766</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>14.60050050962353</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.79166354430916</v>
+        <v>17.79810939323957</v>
       </c>
       <c r="C5">
-        <v>16.55915746675162</v>
+        <v>17.74188710102332</v>
       </c>
       <c r="D5">
-        <v>2.320654717647834</v>
+        <v>2.978428977749627</v>
       </c>
       <c r="E5">
-        <v>6.363514673636309</v>
+        <v>6.824980477953171</v>
       </c>
       <c r="F5">
-        <v>39.93272130625588</v>
+        <v>35.16297749971806</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>3.209777385163216</v>
+        <v>3.049756957553745</v>
       </c>
       <c r="I5">
-        <v>3.716125711917491</v>
+        <v>3.447487892297313</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>25.18657016337139</v>
+        <v>21.30833866507619</v>
       </c>
       <c r="L5">
-        <v>5.97712533176484</v>
+        <v>17.47523245839436</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>14.28397629751701</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.947666923899864</v>
       </c>
       <c r="O5">
-        <v>13.98043836432465</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>14.36924216454675</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.72627839741451</v>
+        <v>17.73388097903211</v>
       </c>
       <c r="C6">
-        <v>16.51439729734861</v>
+        <v>17.68946901199211</v>
       </c>
       <c r="D6">
-        <v>2.319813636712478</v>
+        <v>2.978401715873567</v>
       </c>
       <c r="E6">
-        <v>6.352959569046765</v>
+        <v>6.814136752880355</v>
       </c>
       <c r="F6">
-        <v>39.80044308341908</v>
+        <v>35.06754820981865</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>3.225681739449259</v>
+        <v>3.064364681781988</v>
       </c>
       <c r="I6">
-        <v>3.732755554189596</v>
+        <v>3.46305929386343</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>25.11027657532823</v>
+        <v>21.26289355715399</v>
       </c>
       <c r="L6">
-        <v>5.967835346662255</v>
+        <v>17.444544934393</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>14.24708150910096</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.940128061627899</v>
       </c>
       <c r="O6">
-        <v>13.94778605867597</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>14.33348424262073</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.16496847966765</v>
+        <v>18.16607413941494</v>
       </c>
       <c r="C7">
-        <v>16.91558215141403</v>
+        <v>18.12630292146897</v>
       </c>
       <c r="D7">
-        <v>2.341722852155843</v>
+        <v>3.013146946155924</v>
       </c>
       <c r="E7">
-        <v>6.43820672697596</v>
+        <v>6.899344507897341</v>
       </c>
       <c r="F7">
-        <v>40.34131565594733</v>
+        <v>35.4321935277783</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>3.121993541795495</v>
+        <v>2.968517862706224</v>
       </c>
       <c r="I7">
-        <v>3.649609837357278</v>
+        <v>3.391754084573271</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>25.34803948756979</v>
+        <v>21.36003260523638</v>
       </c>
       <c r="L7">
-        <v>6.019534777443105</v>
+        <v>17.4817248607189</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>14.34964792205246</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.982502996064051</v>
       </c>
       <c r="O7">
-        <v>14.20410691987526</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>14.60533861536099</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.9919063741015</v>
+        <v>19.96398424618682</v>
       </c>
       <c r="C8">
-        <v>18.61960356352185</v>
+        <v>19.94242598454495</v>
       </c>
       <c r="D8">
-        <v>2.433982965979684</v>
+        <v>3.156591339153303</v>
       </c>
       <c r="E8">
-        <v>6.800061865596232</v>
+        <v>7.261488656873735</v>
       </c>
       <c r="F8">
-        <v>42.75410374579246</v>
+        <v>37.08075068434324</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.676863621911024</v>
+        <v>2.557794659811686</v>
       </c>
       <c r="I8">
-        <v>3.285891830276533</v>
+        <v>3.078278288000741</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>26.44934111162441</v>
+        <v>21.83997432509573</v>
       </c>
       <c r="L8">
-        <v>6.243823552089895</v>
+        <v>17.67376089493477</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>14.87658677496979</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>6.166014421301483</v>
       </c>
       <c r="O8">
-        <v>15.2823105032375</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>15.74833505575185</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.18324715135547</v>
+        <v>23.09695370372563</v>
       </c>
       <c r="C9">
-        <v>21.64692935953056</v>
+        <v>23.22360291001983</v>
       </c>
       <c r="D9">
-        <v>2.610011882953263</v>
+        <v>3.421097835190766</v>
       </c>
       <c r="E9">
-        <v>7.466438458053543</v>
+        <v>7.927570596618182</v>
       </c>
       <c r="F9">
-        <v>47.3369230393491</v>
+        <v>40.2702513510219</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.848489093523329</v>
+        <v>1.796266761016077</v>
       </c>
       <c r="I9">
-        <v>2.599356068418817</v>
+        <v>2.4864124835141</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>28.62137479993341</v>
+        <v>22.84407837737591</v>
       </c>
       <c r="L9">
-        <v>6.66336334053486</v>
+        <v>18.05186294184169</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.07842823382908</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>6.50837958480786</v>
       </c>
       <c r="O9">
-        <v>17.21627799574345</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>17.79209101665172</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>25.3097330012105</v>
+        <v>25.18245361861468</v>
       </c>
       <c r="C10">
-        <v>23.63039640367698</v>
+        <v>25.3566328134558</v>
       </c>
       <c r="D10">
-        <v>2.756621435797698</v>
+        <v>3.611314934973848</v>
       </c>
       <c r="E10">
-        <v>7.832956952017822</v>
+        <v>8.278952857495725</v>
       </c>
       <c r="F10">
-        <v>49.91182767296741</v>
+        <v>42.03957528220673</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>1.831913884051038</v>
+        <v>1.837562410743951</v>
       </c>
       <c r="I10">
-        <v>2.820598100403178</v>
+        <v>2.875494447106041</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>29.75470400563477</v>
+        <v>23.29164046679544</v>
       </c>
       <c r="L10">
-        <v>6.878921866172864</v>
+        <v>18.08958252023643</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>16.79528256591316</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>6.678810258720869</v>
       </c>
       <c r="O10">
-        <v>18.44244638851517</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>19.07710956306168</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>26.38736489304526</v>
+        <v>26.26712409966799</v>
       </c>
       <c r="C11">
-        <v>23.9633514640381</v>
+        <v>25.55300382195316</v>
       </c>
       <c r="D11">
-        <v>2.929163304092135</v>
+        <v>3.627767131050545</v>
       </c>
       <c r="E11">
-        <v>7.252808254222147</v>
+        <v>7.574039501409768</v>
       </c>
       <c r="F11">
-        <v>46.45420241407703</v>
+        <v>39.23122356241062</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.794330272746039</v>
+        <v>2.797484582641736</v>
       </c>
       <c r="I11">
-        <v>2.940771208548846</v>
+        <v>2.988585808680467</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806006</v>
       </c>
       <c r="K11">
-        <v>27.32482154353113</v>
+        <v>21.45629734263347</v>
       </c>
       <c r="L11">
-        <v>6.413672858269409</v>
+        <v>16.6265489569531</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>15.53133241855639</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.270574662715489</v>
       </c>
       <c r="O11">
-        <v>18.18623371023423</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>18.77051562753633</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.87328858102025</v>
+        <v>26.76666734212168</v>
       </c>
       <c r="C12">
-        <v>23.80266530958296</v>
+        <v>25.25034865194191</v>
       </c>
       <c r="D12">
-        <v>3.030568376461641</v>
+        <v>3.592950927975473</v>
       </c>
       <c r="E12">
-        <v>6.91047482555153</v>
+        <v>7.121944059179144</v>
       </c>
       <c r="F12">
-        <v>43.11977015358986</v>
+        <v>36.58409634478009</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.085009209221406</v>
+        <v>4.090095365010506</v>
       </c>
       <c r="I12">
-        <v>2.95017244165807</v>
+        <v>3.001334211413462</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>25.1624253962849</v>
+        <v>19.91712550233918</v>
       </c>
       <c r="L12">
-        <v>6.122793513150829</v>
+        <v>15.48171075883028</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>14.37456364365936</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>6.036295482637366</v>
       </c>
       <c r="O12">
-        <v>17.69339578337724</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.22501532709722</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.94615161150348</v>
+        <v>26.85993794363062</v>
       </c>
       <c r="C13">
-        <v>23.27913862823549</v>
+        <v>24.56109274044276</v>
       </c>
       <c r="D13">
-        <v>3.088580986119628</v>
+        <v>3.530523359415268</v>
       </c>
       <c r="E13">
-        <v>6.755844373424476</v>
+        <v>6.871832463323798</v>
       </c>
       <c r="F13">
-        <v>39.45201491767594</v>
+        <v>33.72469411873226</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.462843544067629</v>
+        <v>5.456218358542196</v>
       </c>
       <c r="I13">
-        <v>2.878180881137909</v>
+        <v>2.942863903427776</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>22.92471623551252</v>
+        <v>18.40791927430286</v>
       </c>
       <c r="L13">
-        <v>5.957225297559853</v>
+        <v>14.42729171104338</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>13.1479369222265</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.92788870104382</v>
       </c>
       <c r="O13">
-        <v>16.98733892049653</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>17.45732444760952</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>26.81189993578989</v>
+        <v>26.74309124914587</v>
       </c>
       <c r="C14">
-        <v>22.74796706934607</v>
+        <v>23.89904771806018</v>
       </c>
       <c r="D14">
-        <v>3.108843161274052</v>
+        <v>3.477017851505992</v>
       </c>
       <c r="E14">
-        <v>6.773645617144161</v>
+        <v>6.836102877889556</v>
       </c>
       <c r="F14">
-        <v>36.67751854979203</v>
+        <v>31.58626880091704</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.503124442234433</v>
+        <v>6.494216592797464</v>
       </c>
       <c r="I14">
-        <v>2.792822510490097</v>
+        <v>2.871665980017974</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>21.30434998008771</v>
+        <v>17.35729238062768</v>
       </c>
       <c r="L14">
-        <v>5.924783457440963</v>
+        <v>13.72070308528243</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>12.25090218905684</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.932408699725944</v>
       </c>
       <c r="O14">
-        <v>16.38998389918833</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>16.81129152625562</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.68906551981345</v>
+        <v>26.62613853080965</v>
       </c>
       <c r="C15">
-        <v>22.54744286333606</v>
+        <v>23.65949720827337</v>
       </c>
       <c r="D15">
-        <v>3.105825241228693</v>
+        <v>3.459486888855387</v>
       </c>
       <c r="E15">
-        <v>6.78295460976114</v>
+        <v>6.836808392323896</v>
       </c>
       <c r="F15">
-        <v>35.89164339076277</v>
+        <v>30.99075463529729</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.74622627154405</v>
+        <v>6.736270595285427</v>
       </c>
       <c r="I15">
-        <v>2.755251528689343</v>
+        <v>2.840411252251027</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>20.86547071418076</v>
+        <v>17.08718230462227</v>
       </c>
       <c r="L15">
-        <v>5.922644778243717</v>
+        <v>13.5475106639613</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>12.00487145003103</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.939328289403888</v>
       </c>
       <c r="O15">
-        <v>16.20141828201045</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>16.60816085969687</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>25.81722957143201</v>
+        <v>25.76824305850928</v>
       </c>
       <c r="C16">
-        <v>21.8121985960761</v>
+        <v>22.87751188475915</v>
       </c>
       <c r="D16">
-        <v>3.031735451865416</v>
+        <v>3.394591656864625</v>
       </c>
       <c r="E16">
-        <v>6.636165646463941</v>
+        <v>6.717640453636925</v>
       </c>
       <c r="F16">
-        <v>35.28870617680208</v>
+        <v>30.62887151039278</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.565471158797265</v>
+        <v>6.549339334656477</v>
       </c>
       <c r="I16">
-        <v>2.57849347833753</v>
+        <v>2.68754539911255</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>20.71514648384248</v>
+        <v>17.13077429293076</v>
       </c>
       <c r="L16">
-        <v>5.853034953626742</v>
+        <v>13.65366643193565</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.90602340771658</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.876993084104178</v>
       </c>
       <c r="O16">
-        <v>15.79753185515321</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>16.18614122283899</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.20662091294771</v>
+        <v>25.15896720401821</v>
       </c>
       <c r="C17">
-        <v>21.5354870566187</v>
+        <v>22.63826448246196</v>
       </c>
       <c r="D17">
-        <v>2.965255013052996</v>
+        <v>3.37349970393499</v>
       </c>
       <c r="E17">
-        <v>6.487247604149447</v>
+        <v>6.616850055206816</v>
       </c>
       <c r="F17">
-        <v>36.34350388912993</v>
+        <v>31.51822740575652</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.849613570816162</v>
+        <v>5.8283362952035</v>
       </c>
       <c r="I17">
-        <v>2.529261783320374</v>
+        <v>2.608091779801019</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326999</v>
       </c>
       <c r="K17">
-        <v>21.46624528217162</v>
+        <v>17.71997287819829</v>
       </c>
       <c r="L17">
-        <v>5.800282421412137</v>
+        <v>14.11848941415887</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>12.30328828865536</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.812024576851679</v>
       </c>
       <c r="O17">
-        <v>15.8153416971502</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>16.21708539819074</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>24.76689560189736</v>
+        <v>24.70946831795544</v>
       </c>
       <c r="C18">
-        <v>21.61274148291353</v>
+        <v>22.83401528642705</v>
       </c>
       <c r="D18">
-        <v>2.89188546625109</v>
+        <v>3.385064966520822</v>
       </c>
       <c r="E18">
-        <v>6.46128803510259</v>
+        <v>6.66960612291205</v>
       </c>
       <c r="F18">
-        <v>39.03892151392424</v>
+        <v>33.65756882721648</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.611942361771622</v>
+        <v>4.585886525991374</v>
       </c>
       <c r="I18">
-        <v>2.544441124429861</v>
+        <v>2.57993501523265</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>23.16956629536186</v>
+        <v>18.91830583873869</v>
       </c>
       <c r="L18">
-        <v>5.845816107934905</v>
+        <v>15.01209435178924</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>13.21191566620826</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.821602030243458</v>
       </c>
       <c r="O18">
-        <v>16.19248140066648</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.63765141526102</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>24.50169681754347</v>
+        <v>24.42684863958784</v>
       </c>
       <c r="C19">
-        <v>22.00886389678684</v>
+        <v>23.39492358637876</v>
       </c>
       <c r="D19">
-        <v>2.815971746788877</v>
+        <v>3.440411801197162</v>
       </c>
       <c r="E19">
-        <v>6.742153300275487</v>
+        <v>7.051773002862337</v>
       </c>
       <c r="F19">
-        <v>42.66272803573431</v>
+        <v>36.49388431064182</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.130176683921749</v>
+        <v>3.099652901855969</v>
       </c>
       <c r="I19">
-        <v>2.510305318244723</v>
+        <v>2.611180034016209</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033017</v>
       </c>
       <c r="K19">
-        <v>25.40311382835987</v>
+        <v>20.44758981018541</v>
       </c>
       <c r="L19">
-        <v>6.089267746096439</v>
+        <v>16.13941973421442</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>14.39851288959191</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.008218651996195</v>
       </c>
       <c r="O19">
-        <v>16.83571616404702</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>17.34197565253903</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.75944633068439</v>
+        <v>24.6446964094035</v>
       </c>
       <c r="C20">
-        <v>23.18478840165477</v>
+        <v>24.86050204130553</v>
       </c>
       <c r="D20">
-        <v>2.730699719006012</v>
+        <v>3.591475552443362</v>
       </c>
       <c r="E20">
-        <v>7.742261185754062</v>
+        <v>8.190768161059294</v>
       </c>
       <c r="F20">
-        <v>48.92213532368015</v>
+        <v>41.32201063079548</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.681009898070793</v>
+        <v>1.699834208140379</v>
       </c>
       <c r="I20">
-        <v>2.709791429112377</v>
+        <v>2.785209630632347</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>29.20127047546233</v>
+        <v>22.97705375879383</v>
       </c>
       <c r="L20">
-        <v>6.808854128025753</v>
+        <v>17.93623728863299</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>16.45105677736812</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>6.623416526714617</v>
       </c>
       <c r="O20">
-        <v>18.14672323683885</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>18.76176284970469</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.29064555146945</v>
+        <v>26.13884811140861</v>
       </c>
       <c r="C21">
-        <v>24.73393525528984</v>
+        <v>26.55489863874852</v>
       </c>
       <c r="D21">
-        <v>2.822555160999254</v>
+        <v>3.746717963838881</v>
       </c>
       <c r="E21">
-        <v>8.176929664601593</v>
+        <v>8.632499648666499</v>
       </c>
       <c r="F21">
-        <v>51.70584182096295</v>
+        <v>43.32633413929318</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.124882440867119</v>
+        <v>2.105090140350333</v>
       </c>
       <c r="I21">
-        <v>3.069992267361799</v>
+        <v>3.093960235578163</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>30.61006115187447</v>
+        <v>23.70870660169496</v>
       </c>
       <c r="L21">
-        <v>7.088863599020236</v>
+        <v>18.24446802746477</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>17.3160450317757</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>6.855537061581356</v>
       </c>
       <c r="O21">
-        <v>19.19185396810354</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>19.86245436886704</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.26373686328268</v>
+        <v>27.08802745336912</v>
       </c>
       <c r="C22">
-        <v>25.65591067370465</v>
+        <v>27.55952425100465</v>
       </c>
       <c r="D22">
-        <v>2.884906858838764</v>
+        <v>3.830801142077349</v>
       </c>
       <c r="E22">
-        <v>8.400211163597179</v>
+        <v>8.853752786435258</v>
       </c>
       <c r="F22">
-        <v>53.33122990309725</v>
+        <v>44.49557670790681</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.404942667345985</v>
+        <v>2.36025971675488</v>
       </c>
       <c r="I22">
-        <v>3.296101979094956</v>
+        <v>3.285775761668477</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>31.43974722451974</v>
+        <v>24.13897282966085</v>
       </c>
       <c r="L22">
-        <v>7.235054668862566</v>
+        <v>18.40484822793581</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>17.85165991001317</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>6.974183186123646</v>
       </c>
       <c r="O22">
-        <v>19.7981328546235</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>20.49998773618544</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.75128441034345</v>
+        <v>26.58781475582524</v>
       </c>
       <c r="C23">
-        <v>25.14331085302351</v>
+        <v>27.00736103325399</v>
       </c>
       <c r="D23">
-        <v>2.846989228174875</v>
+        <v>3.774521520029951</v>
       </c>
       <c r="E23">
-        <v>8.277706793082208</v>
+        <v>8.732810087386387</v>
       </c>
       <c r="F23">
-        <v>52.57671405695024</v>
+        <v>43.96096869074695</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.257775396291738</v>
+        <v>2.225912784253434</v>
       </c>
       <c r="I23">
-        <v>3.172885725447115</v>
+        <v>3.17917679886211</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839352</v>
       </c>
       <c r="K23">
-        <v>31.08825466864895</v>
+        <v>23.97882168087626</v>
       </c>
       <c r="L23">
-        <v>7.161265927273829</v>
+        <v>18.36997301174754</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>17.61948222693331</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>6.914095872216547</v>
       </c>
       <c r="O23">
-        <v>19.46791093030072</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>20.15492331237048</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.72327509950896</v>
+        <v>24.60590864187165</v>
       </c>
       <c r="C24">
-        <v>23.17328719323387</v>
+        <v>24.87165105549661</v>
       </c>
       <c r="D24">
-        <v>2.712261782858078</v>
+        <v>3.579414647864507</v>
       </c>
       <c r="E24">
-        <v>7.812994238291286</v>
+        <v>8.271924896461986</v>
       </c>
       <c r="F24">
-        <v>49.46617721185304</v>
+        <v>41.75268902195047</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>1.690622622031464</v>
+        <v>1.70763545064468</v>
       </c>
       <c r="I24">
-        <v>2.706465682276913</v>
+        <v>2.778296402647897</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>29.58307571495894</v>
+        <v>23.25552364113352</v>
       </c>
       <c r="L24">
-        <v>6.870556431395136</v>
+        <v>18.14473491169595</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>16.66246410747492</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>6.677521909708211</v>
       </c>
       <c r="O24">
-        <v>18.19021076891629</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>18.81379347344075</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>22.35648517787717</v>
+        <v>22.287011525612</v>
       </c>
       <c r="C25">
-        <v>20.90297979920472</v>
+        <v>22.40321340982517</v>
       </c>
       <c r="D25">
-        <v>2.569597429154267</v>
+        <v>3.36785321968638</v>
       </c>
       <c r="E25">
-        <v>7.296150961844027</v>
+        <v>7.756837020799222</v>
       </c>
       <c r="F25">
-        <v>45.94978184156452</v>
+        <v>39.28160048838712</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.071088203353129</v>
+        <v>2.000146730616494</v>
       </c>
       <c r="I25">
-        <v>2.800154837318563</v>
+        <v>2.664603600408785</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>27.90029288340581</v>
+        <v>22.46453548177143</v>
       </c>
       <c r="L25">
-        <v>6.546166406621583</v>
+        <v>17.8735481460274</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.65922233646626</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>6.413131019939438</v>
       </c>
       <c r="O25">
-        <v>16.72622482938077</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
+        <v>17.27171709500071</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
